--- a/HighLow.xlsx
+++ b/HighLow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12310"/>
+    <workbookView windowWidth="25600" windowHeight="12310" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Year" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Hour1(C&gt;O)" sheetId="5" r:id="rId5"/>
     <sheet name="Buy" sheetId="6" r:id="rId6"/>
     <sheet name="Sell" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="25">
   <si>
     <t>stop</t>
   </si>
@@ -81,17 +82,32 @@
   <si>
     <t>LiM</t>
   </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>盈亏比</t>
+  </si>
+  <si>
+    <t>胜率</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -139,6 +155,74 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -147,15 +231,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,45 +248,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,14 +262,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -237,17 +269,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,29 +293,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,25 +344,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,19 +398,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,7 +434,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,25 +476,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,31 +500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,49 +512,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,10 +538,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -561,6 +603,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -575,50 +635,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -627,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,137 +655,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,9 +795,42 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -806,7 +855,7 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -821,9 +870,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -834,9 +880,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -857,9 +900,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -886,9 +926,6 @@
     </xf>
     <xf numFmtId="10" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1214,27 +1251,27 @@
   <sheetPr/>
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="8.72727272727273" style="19"/>
-    <col min="10" max="11" width="8.72727272727273" style="20"/>
-    <col min="12" max="12" width="8.72727272727273" style="21"/>
-    <col min="13" max="13" width="8.81818181818182" style="21"/>
-    <col min="14" max="14" width="8.72727272727273" style="22"/>
-    <col min="15" max="16" width="7.09090909090909" style="22" customWidth="1"/>
-    <col min="17" max="17" width="6.09090909090909" style="21" customWidth="1"/>
-    <col min="18" max="18" width="10.7272727272727" style="21" customWidth="1"/>
-    <col min="19" max="19" width="7" style="22" customWidth="1"/>
-    <col min="20" max="20" width="10.7272727272727" style="22" customWidth="1"/>
-    <col min="21" max="21" width="9.09090909090909" style="17" customWidth="1"/>
-    <col min="22" max="22" width="8.72727272727273" style="14"/>
-    <col min="23" max="23" width="10.7272727272727" style="14"/>
-    <col min="24" max="24" width="14" style="23"/>
-    <col min="25" max="26" width="8.72727272727273" style="14"/>
+    <col min="4" max="4" width="8.72727272727273" style="29"/>
+    <col min="10" max="11" width="8.72727272727273" style="30"/>
+    <col min="12" max="12" width="8.72727272727273" style="31"/>
+    <col min="13" max="13" width="8.81818181818182" style="31"/>
+    <col min="14" max="14" width="8.72727272727273" style="12"/>
+    <col min="15" max="16" width="7.09090909090909" style="12" customWidth="1"/>
+    <col min="17" max="17" width="6.09090909090909" style="31" customWidth="1"/>
+    <col min="18" max="18" width="10.7272727272727" style="31" customWidth="1"/>
+    <col min="19" max="19" width="7" style="12" customWidth="1"/>
+    <col min="20" max="20" width="10.7272727272727" style="12" customWidth="1"/>
+    <col min="21" max="21" width="9.09090909090909" style="25" customWidth="1"/>
+    <col min="22" max="22" width="8.72727272727273" style="25"/>
+    <col min="23" max="23" width="10.7272727272727" style="25"/>
+    <col min="24" max="24" width="14" style="32"/>
+    <col min="25" max="26" width="8.72727272727273" style="25"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -1246,574 +1283,570 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:24">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31" t="s">
+      <c r="M2" s="38"/>
+      <c r="N2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="30" t="s">
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="31" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="31"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
+      <c r="T2" s="39"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="O3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="31" t="s">
+      <c r="P3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="Q3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="R3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="31" t="s">
+      <c r="T3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="V4" s="16"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:26">
-      <c r="A5" s="8">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="V4" s="27"/>
+    </row>
+    <row r="5" s="12" customFormat="1" spans="1:26">
+      <c r="A5" s="19">
         <v>42004</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="20">
         <v>223</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="20">
         <v>1.70852</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="20">
         <v>381</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="20">
         <v>385</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="20">
         <v>-156</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="20">
         <v>101.365276</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="20">
         <v>-2.58296</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="20">
         <v>142.340081</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="43">
         <v>78</v>
       </c>
-      <c r="K5" s="36">
-        <f>J5/$B5</f>
+      <c r="K5" s="44">
+        <f t="shared" ref="K5:K10" si="0">J5/$B5</f>
         <v>0.349775784753363</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="45">
         <v>145</v>
       </c>
-      <c r="M5" s="38">
-        <f>L5/$B5</f>
+      <c r="M5" s="46">
+        <f t="shared" ref="M5:M10" si="1">L5/$B5</f>
         <v>0.650224215246637</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="16">
         <v>114</v>
       </c>
-      <c r="O5" s="10">
-        <f>N5/$B5</f>
+      <c r="O5" s="21">
+        <f t="shared" ref="O5:O10" si="2">N5/$B5</f>
         <v>0.511210762331839</v>
       </c>
-      <c r="P5" s="10">
-        <f>N5/L5</f>
+      <c r="P5" s="21">
+        <f t="shared" ref="P5:P10" si="3">N5/L5</f>
         <v>0.786206896551724</v>
       </c>
-      <c r="Q5" s="37">
+      <c r="Q5" s="45">
         <v>8966</v>
       </c>
-      <c r="R5" s="37">
+      <c r="R5" s="45">
         <v>114.948718</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="16">
         <v>-8585</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="16">
         <v>-59.206897</v>
       </c>
-      <c r="U5" s="11">
-        <f>R5/-T5</f>
+      <c r="U5" s="22">
+        <f t="shared" ref="U5:U10" si="4">R5/-T5</f>
         <v>1.94147512915598</v>
       </c>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="6">
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="17">
         <v>42369</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="18">
         <v>231</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="18">
         <v>0.393939</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="18">
         <v>91</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="18">
         <v>556</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="18">
         <v>-395</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="18">
         <v>143.866381</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="18">
         <v>-1.606061</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="18">
         <v>195.352227</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="43">
         <v>89</v>
       </c>
-      <c r="K6" s="36">
-        <f>J6/$B6</f>
+      <c r="K6" s="44">
+        <f t="shared" si="0"/>
         <v>0.385281385281385</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="45">
         <v>142</v>
       </c>
-      <c r="M6" s="38">
-        <f>L6/$B6</f>
+      <c r="M6" s="46">
+        <f t="shared" si="1"/>
         <v>0.614718614718615</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="16">
         <v>117</v>
       </c>
-      <c r="O6" s="10">
-        <f>N6/$B6</f>
+      <c r="O6" s="21">
+        <f t="shared" si="2"/>
         <v>0.506493506493506</v>
       </c>
-      <c r="P6" s="10">
-        <f>N6/L6</f>
+      <c r="P6" s="21">
+        <f t="shared" si="3"/>
         <v>0.823943661971831</v>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="45">
         <v>12339</v>
       </c>
-      <c r="R6" s="37">
+      <c r="R6" s="45">
         <v>138.640449</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="16">
         <v>-12248</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="16">
         <v>-86.253521</v>
       </c>
-      <c r="U6" s="11">
-        <f>R6/-T6</f>
+      <c r="U6" s="22">
+        <f t="shared" si="4"/>
         <v>1.60735987809703</v>
       </c>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="39"/>
-    </row>
-    <row r="7" s="17" customFormat="1" spans="1:24">
-      <c r="A7" s="24">
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+    </row>
+    <row r="7" s="25" customFormat="1" spans="1:24">
+      <c r="A7" s="33">
         <v>42735</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="34">
         <v>230</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="34">
         <v>-0.543478</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="34">
         <v>-125</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="34">
         <v>375</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="34">
         <v>-143</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="34">
         <v>97.80707</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="34">
         <v>-3.021739</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="34">
         <v>157.167347</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="43">
         <v>89</v>
       </c>
-      <c r="K7" s="36">
-        <f>J7/$B7</f>
+      <c r="K7" s="44">
+        <f t="shared" si="0"/>
         <v>0.38695652173913</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="45">
         <v>141</v>
       </c>
-      <c r="M7" s="38">
-        <f>L7/$B7</f>
+      <c r="M7" s="46">
+        <f t="shared" si="1"/>
         <v>0.61304347826087</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="16">
         <v>102</v>
       </c>
-      <c r="O7" s="10">
-        <f>N7/$B7</f>
+      <c r="O7" s="21">
+        <f t="shared" si="2"/>
         <v>0.443478260869565</v>
       </c>
-      <c r="P7" s="10">
-        <f>N7/L7</f>
+      <c r="P7" s="21">
+        <f t="shared" si="3"/>
         <v>0.723404255319149</v>
       </c>
-      <c r="Q7" s="37">
+      <c r="Q7" s="45">
         <v>8558</v>
       </c>
-      <c r="R7" s="37">
+      <c r="R7" s="45">
         <v>96.157303</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="16">
         <v>-8683</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="16">
         <v>-61.58156</v>
       </c>
-      <c r="U7" s="11">
-        <f>R7/-T7</f>
+      <c r="U7" s="22">
+        <f t="shared" si="4"/>
         <v>1.5614626034157</v>
       </c>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="39"/>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="6">
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="32"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="17">
         <v>43100</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="18">
         <v>217</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="18">
         <v>3.396313</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="18">
         <v>737</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="18">
         <v>568</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="18">
         <v>-192</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="18">
         <v>105.374067</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="18">
         <v>0.631336</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="18">
         <v>137.5</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="43">
         <v>85</v>
       </c>
-      <c r="K8" s="36">
-        <f>J8/$B8</f>
+      <c r="K8" s="44">
+        <f t="shared" si="0"/>
         <v>0.391705069124424</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="45">
         <v>132</v>
       </c>
-      <c r="M8" s="38">
-        <f>L8/$B8</f>
+      <c r="M8" s="46">
+        <f t="shared" si="1"/>
         <v>0.608294930875576</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="16">
         <v>99</v>
       </c>
-      <c r="O8" s="10">
-        <f>N8/$B8</f>
+      <c r="O8" s="21">
+        <f t="shared" si="2"/>
         <v>0.456221198156682</v>
       </c>
-      <c r="P8" s="10">
-        <f>N8/L8</f>
+      <c r="P8" s="21">
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
-      <c r="Q8" s="37">
+      <c r="Q8" s="45">
         <v>8511</v>
       </c>
-      <c r="R8" s="37">
+      <c r="R8" s="45">
         <v>100.129412</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="16">
         <v>-7774</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="16">
         <v>-58.893939</v>
       </c>
-      <c r="U8" s="11">
-        <f>R8/-T8</f>
+      <c r="U8" s="22">
+        <f t="shared" si="4"/>
         <v>1.70016496943769</v>
       </c>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="39"/>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="8">
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="19">
         <v>43465</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="20">
         <v>236</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="20">
         <v>19.775424</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="20">
         <v>4667</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="20">
         <v>934</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="20">
         <v>-255</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="20">
         <v>170.710968</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="20">
         <v>17.936441</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="20">
         <v>221.272358</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="43">
         <v>102</v>
       </c>
-      <c r="K9" s="36">
-        <f>J9/$B9</f>
+      <c r="K9" s="44">
+        <f t="shared" si="0"/>
         <v>0.432203389830508</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="45">
         <v>134</v>
       </c>
-      <c r="M9" s="38">
-        <f>L9/$B9</f>
+      <c r="M9" s="46">
+        <f t="shared" si="1"/>
         <v>0.567796610169492</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="16">
         <v>106</v>
       </c>
-      <c r="O9" s="10">
-        <f>N9/$B9</f>
+      <c r="O9" s="21">
+        <f t="shared" si="2"/>
         <v>0.449152542372881</v>
       </c>
-      <c r="P9" s="10">
-        <f>N9/L9</f>
+      <c r="P9" s="21">
+        <f t="shared" si="3"/>
         <v>0.791044776119403</v>
       </c>
-      <c r="Q9" s="37">
+      <c r="Q9" s="45">
         <v>17335</v>
       </c>
-      <c r="R9" s="37">
+      <c r="R9" s="45">
         <v>169.95098</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="16">
         <v>-12668</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="16">
         <v>-95.24812</v>
       </c>
-      <c r="U9" s="11">
-        <f>R9/-T9</f>
+      <c r="U9" s="22">
+        <f t="shared" si="4"/>
         <v>1.7842974748478</v>
       </c>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="39"/>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="6">
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="17">
         <v>43830</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="18">
         <v>35</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="18">
         <v>30</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="18">
         <v>1050</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="18">
         <v>375</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="18">
         <v>-158</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="18">
         <v>133.25716</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="18">
         <v>27.257143</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="18">
         <v>211.846154</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="43">
         <v>17</v>
       </c>
-      <c r="K10" s="36">
-        <f>J10/$B10</f>
+      <c r="K10" s="44">
+        <f t="shared" si="0"/>
         <v>0.485714285714286</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="45">
         <v>18</v>
       </c>
-      <c r="M10" s="38">
-        <f>L10/$B10</f>
+      <c r="M10" s="46">
+        <f t="shared" si="1"/>
         <v>0.514285714285714</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="16">
         <v>11</v>
       </c>
-      <c r="O10" s="10">
-        <f>N10/$B10</f>
+      <c r="O10" s="21">
+        <f t="shared" si="2"/>
         <v>0.314285714285714</v>
       </c>
-      <c r="P10" s="10">
-        <f>N10/L10</f>
+      <c r="P10" s="21">
+        <f t="shared" si="3"/>
         <v>0.611111111111111</v>
       </c>
-      <c r="Q10" s="37">
+      <c r="Q10" s="45">
         <v>2400</v>
       </c>
-      <c r="R10" s="37">
+      <c r="R10" s="45">
         <v>141.176471</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="16">
         <v>-1350</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="16">
         <v>-75</v>
       </c>
-      <c r="U10" s="11">
-        <f>R10/-T10</f>
+      <c r="U10" s="22">
+        <f t="shared" si="4"/>
         <v>1.88235294666667</v>
       </c>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="39"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
     </row>
     <row r="11" spans="14:14">
-      <c r="N11" s="22">
+      <c r="N11" s="12">
         <f>SUM(N5:N10)</f>
         <v>549</v>
       </c>
@@ -1823,7 +1856,7 @@
         <f>SUM(B5:B11)</f>
         <v>1172</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="29">
         <f>SUM(D5:D11)</f>
         <v>6801</v>
       </c>
@@ -1836,566 +1869,563 @@
       <c r="A15" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="16" s="18" customFormat="1" spans="4:24">
-      <c r="D16" s="27"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="40"/>
+    <row r="16" s="28" customFormat="1" spans="4:24">
+      <c r="D16" s="36"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="X16" s="47"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="H17" s="2" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="H17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30" t="s">
+      <c r="K17" s="37"/>
+      <c r="L17" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="M17" s="30"/>
-      <c r="N17" s="31" t="s">
+      <c r="M17" s="38"/>
+      <c r="N17" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="30" t="s">
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="R17" s="30"/>
-      <c r="S17" s="31" t="s">
+      <c r="R17" s="38"/>
+      <c r="S17" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="T17" s="31"/>
+      <c r="T17" s="39"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="28" t="s">
+      <c r="J18" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="28" t="s">
+      <c r="K18" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="L18" s="30" t="s">
+      <c r="L18" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="30" t="s">
+      <c r="M18" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N18" s="31" t="s">
+      <c r="N18" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="31" t="s">
+      <c r="O18" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="31" t="s">
+      <c r="P18" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="Q18" s="30" t="s">
+      <c r="Q18" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="R18" s="30" t="s">
+      <c r="R18" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="S18" s="31" t="s">
+      <c r="S18" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="T18" s="31" t="s">
+      <c r="T18" s="39" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="8">
+      <c r="A20" s="19">
         <v>42004</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="20">
         <v>223</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="20">
         <v>-4.107623</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="20">
         <v>-916</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="20">
         <v>385</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="20">
         <v>-149</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="20">
         <v>109.201348</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="20">
         <v>-2.58296</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="20">
         <v>142.340081</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="43">
         <v>90</v>
       </c>
-      <c r="K20" s="36">
-        <f>J20/$B20</f>
+      <c r="K20" s="44">
+        <f t="shared" ref="K20:K25" si="5">J20/$B20</f>
         <v>0.403587443946188</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="45">
         <v>133</v>
       </c>
-      <c r="M20" s="38">
-        <f>L20/$B20</f>
+      <c r="M20" s="46">
+        <f t="shared" ref="M20:M25" si="6">L20/$B20</f>
         <v>0.596412556053812</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="16">
         <v>68</v>
       </c>
-      <c r="O20" s="10">
-        <f>N20/$B20</f>
+      <c r="O20" s="21">
+        <f t="shared" ref="O20:O25" si="7">N20/$B20</f>
         <v>0.304932735426009</v>
       </c>
-      <c r="P20" s="10">
-        <f>N20/L20</f>
+      <c r="P20" s="21">
+        <f t="shared" ref="P20:P25" si="8">N20/L20</f>
         <v>0.511278195488722</v>
       </c>
-      <c r="Q20" s="37">
+      <c r="Q20" s="45">
         <v>9275</v>
       </c>
-      <c r="R20" s="37">
+      <c r="R20" s="45">
         <v>103.055556</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S20" s="16">
         <v>-10191</v>
       </c>
-      <c r="T20" s="5">
+      <c r="T20" s="16">
         <v>-76.62406</v>
       </c>
-      <c r="U20" s="11">
-        <f>R20/-T20</f>
+      <c r="U20" s="22">
+        <f t="shared" ref="U20:U25" si="9">R20/-T20</f>
         <v>1.34495034588353</v>
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="6">
+      <c r="A21" s="17">
         <v>42369</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="18">
         <v>231</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="18">
         <v>2.220779</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="18">
         <v>513</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="18">
         <v>556</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="18">
         <v>-223</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="18">
         <v>141.427193</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="18">
         <v>-1.606061</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="18">
         <v>195.352227</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="43">
         <v>100</v>
       </c>
-      <c r="K21" s="36">
-        <f>J21/$B21</f>
+      <c r="K21" s="44">
+        <f t="shared" si="5"/>
         <v>0.432900432900433</v>
       </c>
-      <c r="L21" s="37">
+      <c r="L21" s="45">
         <v>131</v>
       </c>
-      <c r="M21" s="38">
-        <f>L21/$B21</f>
+      <c r="M21" s="46">
+        <f t="shared" si="6"/>
         <v>0.567099567099567</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="16">
         <v>95</v>
       </c>
-      <c r="O21" s="10">
-        <f>N21/$B21</f>
+      <c r="O21" s="21">
+        <f t="shared" si="7"/>
         <v>0.411255411255411</v>
       </c>
-      <c r="P21" s="10">
-        <f>N21/L21</f>
+      <c r="P21" s="21">
+        <f t="shared" si="8"/>
         <v>0.725190839694656</v>
       </c>
-      <c r="Q21" s="37">
+      <c r="Q21" s="45">
         <v>12657</v>
       </c>
-      <c r="R21" s="37">
+      <c r="R21" s="45">
         <v>126.57</v>
       </c>
-      <c r="S21" s="5">
+      <c r="S21" s="16">
         <v>-12144</v>
       </c>
-      <c r="T21" s="5">
+      <c r="T21" s="16">
         <v>-92.70229</v>
       </c>
-      <c r="U21" s="11">
-        <f>R21/-T21</f>
+      <c r="U21" s="22">
+        <f t="shared" si="9"/>
         <v>1.36533843985947</v>
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="8">
+      <c r="A22" s="19">
         <v>42735</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="20">
         <v>230</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="20">
         <v>-3.513043</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="20">
         <v>-808</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="20">
         <v>375</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="20">
         <v>-128</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="20">
         <v>105.208495</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="20">
         <v>-3.021739</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="20">
         <v>157.167347</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="43">
         <v>99</v>
       </c>
-      <c r="K22" s="36">
-        <f>J22/$B22</f>
+      <c r="K22" s="44">
+        <f t="shared" si="5"/>
         <v>0.430434782608696</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="45">
         <v>131</v>
       </c>
-      <c r="M22" s="38">
-        <f>L22/$B22</f>
+      <c r="M22" s="46">
+        <f t="shared" si="6"/>
         <v>0.569565217391304</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="16">
         <v>75</v>
       </c>
-      <c r="O22" s="10">
-        <f>N22/$B22</f>
+      <c r="O22" s="21">
+        <f t="shared" si="7"/>
         <v>0.326086956521739</v>
       </c>
-      <c r="P22" s="10">
-        <f>N22/L22</f>
+      <c r="P22" s="21">
+        <f t="shared" si="8"/>
         <v>0.572519083969466</v>
       </c>
-      <c r="Q22" s="37">
+      <c r="Q22" s="45">
         <v>9125</v>
       </c>
-      <c r="R22" s="37">
+      <c r="R22" s="45">
         <v>92.171717</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" s="16">
         <v>-9933</v>
       </c>
-      <c r="T22" s="5">
+      <c r="T22" s="16">
         <v>-75.824427</v>
       </c>
-      <c r="U22" s="11">
-        <f>R22/-T22</f>
+      <c r="U22" s="22">
+        <f t="shared" si="9"/>
         <v>1.21559398002441</v>
       </c>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="6">
+      <c r="A23" s="17">
         <v>43100</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="18">
         <v>217</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="18">
         <v>3.184332</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="18">
         <v>691</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="18">
         <v>568</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="18">
         <v>-118</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="18">
         <v>108.40042</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="18">
         <v>0.631336</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="18">
         <v>137.5</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="43">
         <v>94</v>
       </c>
-      <c r="K23" s="36">
-        <f>J23/$B23</f>
+      <c r="K23" s="44">
+        <f t="shared" si="5"/>
         <v>0.433179723502304</v>
       </c>
-      <c r="L23" s="37">
+      <c r="L23" s="45">
         <v>123</v>
       </c>
-      <c r="M23" s="38">
-        <f>L23/$B23</f>
+      <c r="M23" s="46">
+        <f t="shared" si="6"/>
         <v>0.566820276497696</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="16">
         <v>49</v>
       </c>
-      <c r="O23" s="10">
-        <f>N23/$B23</f>
+      <c r="O23" s="21">
+        <f t="shared" si="7"/>
         <v>0.225806451612903</v>
       </c>
-      <c r="P23" s="10">
-        <f>N23/L23</f>
+      <c r="P23" s="21">
+        <f t="shared" si="8"/>
         <v>0.398373983739837</v>
       </c>
-      <c r="Q23" s="37">
+      <c r="Q23" s="45">
         <v>8783</v>
       </c>
-      <c r="R23" s="37">
+      <c r="R23" s="45">
         <v>93.43617</v>
       </c>
-      <c r="S23" s="5">
+      <c r="S23" s="16">
         <v>-8092</v>
       </c>
-      <c r="T23" s="5">
+      <c r="T23" s="16">
         <v>-65.788618</v>
       </c>
-      <c r="U23" s="11">
-        <f>R23/-T23</f>
+      <c r="U23" s="22">
+        <f t="shared" si="9"/>
         <v>1.42024825631692</v>
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="8">
+      <c r="A24" s="19">
         <v>43465</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="20">
         <v>236</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="20">
         <v>21.898305</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="20">
         <v>5168</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="20">
         <v>934</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="20">
         <v>-176</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="20">
         <v>167.420779</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="20">
         <v>17.936441</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="20">
         <v>221.272358</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24" s="43">
         <v>107</v>
       </c>
-      <c r="K24" s="36">
-        <f>J24/$B24</f>
+      <c r="K24" s="44">
+        <f t="shared" si="5"/>
         <v>0.453389830508475</v>
       </c>
-      <c r="L24" s="37">
+      <c r="L24" s="45">
         <v>129</v>
       </c>
-      <c r="M24" s="38">
-        <f>L24/$B24</f>
+      <c r="M24" s="46">
+        <f t="shared" si="6"/>
         <v>0.546610169491525</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="16">
         <v>107</v>
       </c>
-      <c r="O24" s="10">
-        <f>N24/$B24</f>
+      <c r="O24" s="21">
+        <f t="shared" si="7"/>
         <v>0.453389830508475</v>
       </c>
-      <c r="P24" s="10">
-        <f>N24/L24</f>
+      <c r="P24" s="21">
+        <f t="shared" si="8"/>
         <v>0.829457364341085</v>
       </c>
-      <c r="Q24" s="37">
+      <c r="Q24" s="45">
         <v>17402</v>
       </c>
-      <c r="R24" s="37">
+      <c r="R24" s="45">
         <v>162.635514</v>
       </c>
-      <c r="S24" s="5">
+      <c r="S24" s="16">
         <v>-12234</v>
       </c>
-      <c r="T24" s="5">
+      <c r="T24" s="16">
         <v>-95.578125</v>
       </c>
-      <c r="U24" s="11">
-        <f>R24/-T24</f>
+      <c r="U24" s="22">
+        <f t="shared" si="9"/>
         <v>1.70159766159882</v>
       </c>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="6">
+      <c r="A25" s="17">
         <v>43830</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="18">
         <v>35</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="18">
         <v>36.742857</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="18">
         <v>1286</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="18">
         <v>375</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="18">
         <v>-122</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="18">
         <v>130.625271</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="18">
         <v>27.257143</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="18">
         <v>211.846154</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="43">
         <v>18</v>
       </c>
-      <c r="K25" s="36">
-        <f>J25/$B25</f>
+      <c r="K25" s="44">
+        <f t="shared" si="5"/>
         <v>0.514285714285714</v>
       </c>
-      <c r="L25" s="37">
+      <c r="L25" s="45">
         <v>17</v>
       </c>
-      <c r="M25" s="38">
-        <f>L25/$B25</f>
+      <c r="M25" s="46">
+        <f t="shared" si="6"/>
         <v>0.485714285714286</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="16">
         <v>9</v>
       </c>
-      <c r="O25" s="10">
-        <f>N25/$B25</f>
+      <c r="O25" s="21">
+        <f t="shared" si="7"/>
         <v>0.257142857142857</v>
       </c>
-      <c r="P25" s="10">
-        <f>N25/L25</f>
+      <c r="P25" s="21">
+        <f t="shared" si="8"/>
         <v>0.529411764705882</v>
       </c>
-      <c r="Q25" s="37">
+      <c r="Q25" s="45">
         <v>2516</v>
       </c>
-      <c r="R25" s="37">
+      <c r="R25" s="45">
         <v>139.777778</v>
       </c>
-      <c r="S25" s="5">
+      <c r="S25" s="16">
         <v>-1230</v>
       </c>
-      <c r="T25" s="5">
+      <c r="T25" s="16">
         <v>-72.352941</v>
       </c>
-      <c r="U25" s="11">
-        <f>R25/-T25</f>
+      <c r="U25" s="22">
+        <f t="shared" si="9"/>
         <v>1.93188799332981</v>
       </c>
     </row>
@@ -2404,7 +2434,7 @@
         <f>SUM(B20:B25)</f>
         <v>1172</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="29">
         <f>SUM(D20:D25)</f>
         <v>5934</v>
       </c>
@@ -2412,7 +2442,7 @@
         <f>(D26-B26)*50</f>
         <v>238100</v>
       </c>
-      <c r="N26" s="22">
+      <c r="N26" s="12">
         <f>SUM(N20:N25)</f>
         <v>403</v>
       </c>
@@ -2448,506 +2478,506 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="16" max="16" width="8.72727272727273" style="14"/>
-    <col min="18" max="18" width="8.72727272727273" style="14"/>
-    <col min="20" max="20" width="8.72727272727273" style="14"/>
+    <col min="16" max="16" width="8.72727272727273" style="25"/>
+    <col min="18" max="18" width="8.72727272727273" style="25"/>
+    <col min="20" max="20" width="8.72727272727273" style="25"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:19">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="M1" s="13"/>
+      <c r="O1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="2" t="s">
+      <c r="P1" s="26"/>
+      <c r="Q1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="15"/>
-      <c r="S1" s="2" t="s">
+      <c r="R1" s="26"/>
+      <c r="S1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="2" t="s">
+      <c r="P2" s="26"/>
+      <c r="Q2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="15"/>
-      <c r="S2" s="2" t="s">
+      <c r="R2" s="26"/>
+      <c r="S2" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="3"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="14"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="8">
+      <c r="A4" s="19">
         <v>42004</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="20">
         <v>96</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="20">
         <v>89.645833</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="20">
         <v>8606</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="20">
         <v>385</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="20">
         <v>-134</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="20">
         <v>100.578953</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="20">
         <v>105.8125</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="20">
         <v>10158</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="20">
         <v>385</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="20">
         <v>1</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="20">
         <v>89.275837</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="20">
         <v>140.5</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="20">
         <v>64.60976</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="20">
         <v>90</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="22">
         <f>O4/$B4</f>
         <v>0.9375</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="20">
         <v>6</v>
       </c>
-      <c r="R4" s="11">
-        <f>Q4/$B4</f>
+      <c r="R4" s="22">
+        <f t="shared" ref="R4:R9" si="0">Q4/$B4</f>
         <v>0.0625</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="20">
         <v>6</v>
       </c>
-      <c r="T4" s="11">
-        <f>S4/$B4</f>
+      <c r="T4" s="22">
+        <f t="shared" ref="T4:T9" si="1">S4/$B4</f>
         <v>0.0625</v>
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="6">
+      <c r="A5" s="17">
         <v>42369</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="18">
         <v>117</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="18">
         <v>92.188034</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="18">
         <v>10786</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="18">
         <v>556</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="18">
         <v>-133</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="18">
         <v>146.943569</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="18">
         <v>126.897436</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="18">
         <v>14847</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="18">
         <v>556</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="18">
         <v>4</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="18">
         <v>127.684848</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="18">
         <v>183.435897</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="18">
         <v>104.751708</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="18">
         <v>100</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="22">
         <f>O5/B5</f>
         <v>0.854700854700855</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="18">
         <v>17</v>
       </c>
-      <c r="R5" s="11">
-        <f>Q5/$B5</f>
+      <c r="R5" s="22">
+        <f t="shared" si="0"/>
         <v>0.145299145299145</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="18">
         <v>17</v>
       </c>
-      <c r="T5" s="11">
-        <f>S5/$B5</f>
+      <c r="T5" s="22">
+        <f t="shared" si="1"/>
         <v>0.145299145299145</v>
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="8">
+      <c r="A6" s="19">
         <v>42735</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="20">
         <v>108</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="20">
         <v>75.555556</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="20">
         <v>8160</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="20">
         <v>375</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="20">
         <v>-128</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="20">
         <v>99.927949</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="20">
         <v>89.444444</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="20">
         <v>9660</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="20">
         <v>375</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="20">
         <v>2</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="20">
         <v>86.041322</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="20">
         <v>158.185185</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="20">
         <v>82.105147</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="20">
         <v>99</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="22">
         <f>O6/B6</f>
         <v>0.916666666666667</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="20">
         <v>9</v>
       </c>
-      <c r="R6" s="11">
-        <f>Q6/$B6</f>
+      <c r="R6" s="22">
+        <f t="shared" si="0"/>
         <v>0.0833333333333333</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="20">
         <v>9</v>
       </c>
-      <c r="T6" s="11">
-        <f>S6/$B6</f>
+      <c r="T6" s="22">
+        <f t="shared" si="1"/>
         <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="6">
+      <c r="A7" s="17">
         <v>43100</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="18">
         <v>96</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="18">
         <v>89.270833</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="18">
         <v>8570</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="18">
         <v>568</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="18">
         <v>-111</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="18">
         <v>106.732374</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="18">
         <v>92.041667</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="18">
         <v>8836</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="18">
         <v>568</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="18">
         <v>1</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="18">
         <v>103.253181</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="18">
         <v>132.385417</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="18">
         <v>54.165122</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="18">
         <v>94</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="22">
         <f>O7/B7</f>
         <v>0.979166666666667</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="18">
         <v>2</v>
       </c>
-      <c r="R7" s="11">
-        <f>Q7/$B7</f>
+      <c r="R7" s="22">
+        <f t="shared" si="0"/>
         <v>0.0208333333333333</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="18">
         <v>2</v>
       </c>
-      <c r="T7" s="11">
-        <f>S7/$B7</f>
+      <c r="T7" s="22">
+        <f t="shared" si="1"/>
         <v>0.0208333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="8">
+      <c r="A8" s="19">
         <v>43465</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="20">
         <v>129</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="20">
         <v>116.565891</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="20">
         <v>15037</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="20">
         <v>934</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="20">
         <v>-120</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="20">
         <v>174.436541</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="20">
         <v>150.03876</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="20">
         <v>19355</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="20">
         <v>934</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="20">
         <v>3</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="20">
         <v>147.542017</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="20">
         <v>210.682171</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="20">
         <v>87.141676</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="20">
         <v>107</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="22">
         <f>O8/B8</f>
         <v>0.829457364341085</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="20">
         <v>22</v>
       </c>
-      <c r="R8" s="11">
-        <f>Q8/$B8</f>
+      <c r="R8" s="22">
+        <f t="shared" si="0"/>
         <v>0.170542635658915</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="20">
         <v>22</v>
       </c>
-      <c r="T8" s="11">
-        <f>S8/$B8</f>
+      <c r="T8" s="22">
+        <f t="shared" si="1"/>
         <v>0.170542635658915</v>
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="6">
+      <c r="A9" s="17">
         <v>43830</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="18">
         <v>18</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="18">
         <v>139.777778</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="18">
         <v>2516</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="18">
         <v>375</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="18">
         <v>24</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="18">
         <v>96.435627</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="18">
         <v>139.777778</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="18">
         <v>2516</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="18">
         <v>375</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="18">
         <v>24</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="18">
         <v>96.435627</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="18">
         <v>211.666667</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="18">
         <v>103.387905</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="18">
         <v>18</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="22">
         <f>O9/B9</f>
         <v>1</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="18">
         <v>0</v>
       </c>
-      <c r="R9" s="11">
-        <f>Q9/$B9</f>
+      <c r="R9" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="18">
         <v>0</v>
       </c>
-      <c r="T9" s="11">
-        <f>S9/$B9</f>
+      <c r="T9" s="22">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2983,428 +3013,428 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="34.5" spans="1:17">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:17">
+      <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="8">
+      <c r="A3" s="19">
         <v>42004</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="20">
         <v>127</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="20">
         <v>-74.976378</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="20">
         <v>-9522</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="20">
         <v>-2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="20">
         <v>-149</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="20">
         <v>40.301338</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="20">
         <v>-84.519685</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="20">
         <v>-10734</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="20">
         <v>-2</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="20">
         <v>-523</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="20">
         <v>84.297833</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="20">
         <v>137.685039</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="20">
         <v>65.653818</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="20">
         <v>0</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="20">
         <v>127</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="20">
         <v>62</v>
       </c>
-      <c r="R3" s="13">
-        <f>Q3/P3</f>
+      <c r="R3" s="24">
+        <f t="shared" ref="R3:R8" si="0">Q3/P3</f>
         <v>0.488188976377953</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="6">
+      <c r="A4" s="17">
         <v>42369</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="18">
         <v>114</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="18">
         <v>-90.114035</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="18">
         <v>-10273</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="18">
         <v>-1</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="18">
         <v>-223</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="18">
         <v>39.545819</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="18">
         <v>-133.491228</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="18">
         <v>-15218</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="18">
         <v>-1</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="18">
         <v>-843</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="18">
         <v>137.184279</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="18">
         <v>193.894737</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="18">
         <v>143.578992</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="18">
         <v>0</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="18">
         <v>114</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="18">
         <v>78</v>
       </c>
-      <c r="R4" s="13">
-        <f>Q4/P4</f>
+      <c r="R4" s="24">
+        <f t="shared" si="0"/>
         <v>0.684210526315789</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="8">
+      <c r="A5" s="19">
         <v>42735</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="20">
         <v>122</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="20">
         <v>-73.508197</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="20">
         <v>-8968</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="20">
         <v>-1</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="20">
         <v>-128</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="20">
         <v>39.977937</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="20">
         <v>-84.877049</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="20">
         <v>-10355</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="20">
         <v>-1</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="20">
         <v>-382</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="20">
         <v>75.35191</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="20">
         <v>154.368852</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="20">
         <v>77.610833</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="20">
         <v>0</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="20">
         <v>122</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="20">
         <v>66</v>
       </c>
-      <c r="R5" s="13">
-        <f>Q5/P5</f>
+      <c r="R5" s="24">
+        <f t="shared" si="0"/>
         <v>0.540983606557377</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="6">
+      <c r="A6" s="17">
         <v>43100</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="18">
         <v>121</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="18">
         <v>-65.115702</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="18">
         <v>-7879</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="18">
         <v>-1</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="18">
         <v>-118</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="18">
         <v>38.732241</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="18">
         <v>-71.892562</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="18">
         <v>-8699</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="18">
         <v>-1</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="18">
         <v>-451</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="18">
         <v>72.690646</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="18">
         <v>137.495868</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="18">
         <v>61.992355</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="18">
         <v>0</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="18">
         <v>121</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="18">
         <v>47</v>
       </c>
-      <c r="R6" s="13">
-        <f>Q6/P6</f>
+      <c r="R6" s="24">
+        <f t="shared" si="0"/>
         <v>0.388429752066116</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="8">
+      <c r="A7" s="19">
         <v>43465</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="20">
         <v>106</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="20">
         <v>-93.103774</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="20">
         <v>-9869</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="20">
         <v>-2</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="20">
         <v>-176</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="20">
         <v>35.685646</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="20">
         <v>-142.660377</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="20">
         <v>-15122</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="20">
         <v>-2</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="20">
         <v>-637</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="20">
         <v>135.196709</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="20">
         <v>229.981132</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="20">
         <v>85.937628</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="20">
         <v>0</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="20">
         <v>106</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="20">
         <v>85</v>
       </c>
-      <c r="R7" s="13">
-        <f>Q7/P7</f>
+      <c r="R7" s="24">
+        <f t="shared" si="0"/>
         <v>0.80188679245283</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="6">
+      <c r="A8" s="17">
         <v>43830</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="18">
         <v>17</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="18">
         <v>-72.352941</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="18">
         <v>-1230</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="18">
         <v>-17</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="18">
         <v>-122</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="18">
         <v>42.29353</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="18">
         <v>-91.882353</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="18">
         <v>-1562</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="18">
         <v>-17</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="18">
         <v>-237</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="18">
         <v>79.407873</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="18">
         <v>213.588235</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="18">
         <v>60.509358</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="18">
         <v>0</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="18">
         <v>17</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="18">
         <v>9</v>
       </c>
-      <c r="R8" s="13">
-        <f>Q8/P8</f>
+      <c r="R8" s="24">
+        <f t="shared" si="0"/>
         <v>0.529411764705882</v>
       </c>
     </row>
@@ -3431,116 +3461,110 @@
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="9.72727272727273"/>
-    <col min="5" max="5" width="12.7272727272727" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.7272727272727" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="8">
+      <c r="A3" s="19">
         <v>42004</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="20">
         <v>95</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="18">
         <v>122</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" s="13">
-        <f>B3/C3</f>
+      <c r="E3" s="24">
+        <f t="shared" ref="E3:E8" si="0">B3/C3</f>
         <v>0.778688524590164</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6">
+      <c r="A4" s="17">
         <v>42369</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="18">
         <v>98</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="18">
         <v>135</v>
       </c>
-      <c r="D4"/>
-      <c r="E4" s="13">
-        <f>B4/C4</f>
+      <c r="E4" s="24">
+        <f t="shared" si="0"/>
         <v>0.725925925925926</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="8">
+      <c r="A5" s="19">
         <v>42735</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="20">
         <v>98</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="20">
         <v>115</v>
       </c>
-      <c r="D5"/>
-      <c r="E5" s="13">
-        <f>B5/C5</f>
+      <c r="E5" s="24">
+        <f t="shared" si="0"/>
         <v>0.852173913043478</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="6">
+      <c r="A6" s="17">
         <v>43100</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="18">
         <v>93</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="18">
         <v>109</v>
       </c>
-      <c r="D6"/>
-      <c r="E6" s="13">
-        <f>B6/C6</f>
+      <c r="E6" s="24">
+        <f t="shared" si="0"/>
         <v>0.853211009174312</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="8">
+      <c r="A7" s="19">
         <v>43465</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="20">
         <v>101</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="20">
         <v>126</v>
       </c>
-      <c r="D7"/>
-      <c r="E7" s="13">
-        <f>B7/C7</f>
+      <c r="E7" s="24">
+        <f t="shared" si="0"/>
         <v>0.801587301587302</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="6">
+      <c r="A8" s="17">
         <v>43830</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="18">
         <v>13</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="18">
         <v>18</v>
       </c>
-      <c r="D8"/>
-      <c r="E8" s="13">
-        <f>B8/C8</f>
+      <c r="E8" s="24">
+        <f t="shared" si="0"/>
         <v>0.722222222222222</v>
       </c>
     </row>
@@ -3561,111 +3585,111 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" width="12.8181818181818" style="13"/>
+    <col min="4" max="4" width="12.8181818181818" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="8">
+      <c r="A3" s="19">
         <v>42004</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="20">
         <v>124</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="20">
         <v>94</v>
       </c>
-      <c r="D3" s="13">
-        <f>C3/B3</f>
+      <c r="D3" s="24">
+        <f t="shared" ref="D3:D8" si="0">C3/B3</f>
         <v>0.758064516129032</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6">
+      <c r="A4" s="17">
         <v>42369</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="18">
         <v>112</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="18">
         <v>82</v>
       </c>
-      <c r="D4" s="13">
-        <f>C4/B4</f>
+      <c r="D4" s="24">
+        <f t="shared" si="0"/>
         <v>0.732142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8">
+      <c r="A5" s="19">
         <v>42735</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="20">
         <v>129</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="20">
         <v>100</v>
       </c>
-      <c r="D5" s="13">
-        <f>C5/B5</f>
+      <c r="D5" s="24">
+        <f t="shared" si="0"/>
         <v>0.775193798449612</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="6">
+      <c r="A6" s="17">
         <v>43100</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="18">
         <v>136</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="18">
         <v>107</v>
       </c>
-      <c r="D6" s="13">
-        <f>C6/B6</f>
+      <c r="D6" s="24">
+        <f t="shared" si="0"/>
         <v>0.786764705882353</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="8">
+      <c r="A7" s="19">
         <v>43465</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="20">
         <v>119</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="20">
         <v>91</v>
       </c>
-      <c r="D7" s="13">
-        <f>C7/B7</f>
+      <c r="D7" s="24">
+        <f t="shared" si="0"/>
         <v>0.764705882352941</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="6">
+      <c r="A8" s="17">
         <v>43830</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="18">
         <v>20</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="18">
         <v>18</v>
       </c>
-      <c r="D8" s="13">
-        <f>C8/B8</f>
+      <c r="D8" s="24">
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
     </row>
@@ -3690,524 +3714,524 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:19">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="M1" s="13"/>
+      <c r="O1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2" t="s">
+      <c r="R1" s="13"/>
+      <c r="S1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2" t="s">
+      <c r="R2" s="13"/>
+      <c r="S2" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="8">
+      <c r="A4" s="19">
         <v>42004</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="20">
         <v>102</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="20">
         <v>1.088235</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="20">
         <v>111</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="20">
         <v>369</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="20">
         <v>-131</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="20">
         <v>106.076481</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="20">
         <v>3.382353</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="20">
         <v>345</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="20">
         <v>369</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="20">
         <v>-404</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="20">
         <v>121.200272</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="20">
         <v>130.490196</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="20">
         <v>53.672041</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="20">
         <v>45</v>
       </c>
-      <c r="P4" s="11">
-        <f>O4/$B4</f>
+      <c r="P4" s="22">
+        <f t="shared" ref="P4:P9" si="0">O4/$B4</f>
         <v>0.441176470588235</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="20">
         <v>57</v>
       </c>
-      <c r="R4" s="11">
-        <f>Q4/$B4</f>
+      <c r="R4" s="22">
+        <f t="shared" ref="R4:R9" si="1">Q4/$B4</f>
         <v>0.558823529411765</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="20">
         <v>28</v>
       </c>
-      <c r="T4" s="11">
-        <f>S4/$B4</f>
+      <c r="T4" s="22">
+        <f t="shared" ref="T4:T9" si="2">S4/$B4</f>
         <v>0.274509803921569</v>
       </c>
-      <c r="U4" s="13">
-        <f>S4/Q4</f>
+      <c r="U4" s="24">
+        <f t="shared" ref="U4:U9" si="3">S4/Q4</f>
         <v>0.491228070175439</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:21">
-      <c r="A5" s="4">
+    <row r="5" s="12" customFormat="1" spans="1:21">
+      <c r="A5" s="15">
         <v>42369</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="16">
         <v>120</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="16">
         <v>-13.716667</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="16">
         <v>-1646</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="16">
         <v>556</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="16">
         <v>-137</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="16">
         <v>136.022624</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="16">
         <v>-20.291667</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="16">
         <v>-2435</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="16">
         <v>556</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="16">
         <v>-501</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="16">
         <v>174.635534</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="16">
         <v>193.983333</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="16">
         <v>139.348423</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="16">
         <v>45</v>
       </c>
-      <c r="P5" s="10">
-        <f>O5/$B5</f>
+      <c r="P5" s="21">
+        <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="16">
         <v>75</v>
       </c>
-      <c r="R5" s="10">
-        <f>Q5/$B5</f>
+      <c r="R5" s="21">
+        <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="16">
         <v>58</v>
       </c>
-      <c r="T5" s="10">
-        <f>S5/$B5</f>
+      <c r="T5" s="21">
+        <f t="shared" si="2"/>
         <v>0.483333333333333</v>
       </c>
-      <c r="U5" s="12">
-        <f>S5/Q5</f>
+      <c r="U5" s="23">
+        <f t="shared" si="3"/>
         <v>0.773333333333333</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:21">
-      <c r="A6" s="4">
+    <row r="6" s="12" customFormat="1" spans="1:21">
+      <c r="A6" s="15">
         <v>42735</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="16">
         <v>110</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="16">
         <v>-2.181818</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="16">
         <v>-240</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="16">
         <v>363</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="16">
         <v>-128</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="16">
         <v>104.820702</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="16">
         <v>-2.318182</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="16">
         <v>-255</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="16">
         <v>363</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="16">
         <v>-382</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="16">
         <v>117.684381</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="16">
         <v>154.018182</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="16">
         <v>53.049913</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="16">
         <v>50</v>
       </c>
-      <c r="P6" s="10">
-        <f>O6/$B6</f>
+      <c r="P6" s="21">
+        <f t="shared" si="0"/>
         <v>0.454545454545455</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="16">
         <v>60</v>
       </c>
-      <c r="R6" s="10">
-        <f>Q6/$B6</f>
+      <c r="R6" s="21">
+        <f t="shared" si="1"/>
         <v>0.545454545454545</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="16">
         <v>34</v>
       </c>
-      <c r="T6" s="10">
-        <f>S6/$B6</f>
+      <c r="T6" s="21">
+        <f t="shared" si="2"/>
         <v>0.309090909090909</v>
       </c>
-      <c r="U6" s="12">
-        <f>S6/Q6</f>
+      <c r="U6" s="23">
+        <f t="shared" si="3"/>
         <v>0.566666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="6">
+      <c r="A7" s="17">
         <v>43100</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="18">
         <v>109</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="18">
         <v>19.155963</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="18">
         <v>2088</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="18">
         <v>376</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="18">
         <v>-118</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="18">
         <v>102.892534</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="18">
         <v>22.724771</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="18">
         <v>2477</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="18">
         <v>376</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="18">
         <v>-293</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="18">
         <v>105.069454</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="18">
         <v>131.614679</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="18">
         <v>52.291368</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="18">
         <v>57</v>
       </c>
-      <c r="P7" s="11">
-        <f>O7/$B7</f>
+      <c r="P7" s="22">
+        <f t="shared" si="0"/>
         <v>0.522935779816514</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="18">
         <v>52</v>
       </c>
-      <c r="R7" s="11">
-        <f>Q7/$B7</f>
+      <c r="R7" s="22">
+        <f t="shared" si="1"/>
         <v>0.477064220183486</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="18">
         <v>20</v>
       </c>
-      <c r="T7" s="11">
-        <f>S7/$B7</f>
+      <c r="T7" s="22">
+        <f t="shared" si="2"/>
         <v>0.18348623853211</v>
       </c>
-      <c r="U7" s="13">
-        <f>S7/Q7</f>
+      <c r="U7" s="24">
+        <f t="shared" si="3"/>
         <v>0.384615384615385</v>
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="8">
+      <c r="A8" s="19">
         <v>43465</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="20">
         <v>110</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="20">
         <v>17.818182</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="20">
         <v>1960</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="20">
         <v>608</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="20">
         <v>-176</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="20">
         <v>145.66678</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="20">
         <v>14.481818</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="20">
         <v>1593</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="20">
         <v>608</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="20">
         <v>-637</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="20">
         <v>187.297915</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="20">
         <v>217.581818</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="20">
         <v>85.998441</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="20">
         <v>53</v>
       </c>
-      <c r="P8" s="11">
-        <f>O8/$B8</f>
+      <c r="P8" s="22">
+        <f t="shared" si="0"/>
         <v>0.481818181818182</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="20">
         <v>57</v>
       </c>
-      <c r="R8" s="11">
-        <f>Q8/$B8</f>
+      <c r="R8" s="22">
+        <f t="shared" si="1"/>
         <v>0.518181818181818</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="20">
         <v>45</v>
       </c>
-      <c r="T8" s="11">
-        <f>S8/$B8</f>
+      <c r="T8" s="22">
+        <f t="shared" si="2"/>
         <v>0.409090909090909</v>
       </c>
-      <c r="U8" s="13">
-        <f>S8/Q8</f>
+      <c r="U8" s="24">
+        <f t="shared" si="3"/>
         <v>0.789473684210526</v>
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="6">
+      <c r="A9" s="17">
         <v>43830</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="18">
         <v>21</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="18">
         <v>56.952381</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="18">
         <v>1196</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="18">
         <v>375</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="18">
         <v>-118</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="18">
         <v>143.761426</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="18">
         <v>47.666667</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="18">
         <v>1001</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="18">
         <v>375</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="18">
         <v>-237</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="18">
         <v>159.45041</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="18">
         <v>199.619048</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="18">
         <v>47.027095</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="18">
         <v>12</v>
       </c>
-      <c r="P9" s="11">
-        <f>O9/$B9</f>
+      <c r="P9" s="22">
+        <f t="shared" si="0"/>
         <v>0.571428571428571</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="18">
         <v>9</v>
       </c>
-      <c r="R9" s="11">
-        <f>Q9/$B9</f>
+      <c r="R9" s="22">
+        <f t="shared" si="1"/>
         <v>0.428571428571429</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="18">
         <v>5</v>
       </c>
-      <c r="T9" s="11">
-        <f>S9/$B9</f>
+      <c r="T9" s="22">
+        <f t="shared" si="2"/>
         <v>0.238095238095238</v>
       </c>
-      <c r="U9" s="13">
-        <f>S9/Q9</f>
+      <c r="U9" s="24">
+        <f t="shared" si="3"/>
         <v>0.555555555555556</v>
       </c>
     </row>
@@ -4237,523 +4261,523 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:19">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="P1" s="2" t="s">
+      <c r="M1" s="13"/>
+      <c r="P1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2" t="s">
+      <c r="R1" s="13"/>
+      <c r="S1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2" t="s">
+      <c r="R2" s="13"/>
+      <c r="S2" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:21">
-      <c r="A4" s="4">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+    </row>
+    <row r="4" s="12" customFormat="1" spans="1:21">
+      <c r="A4" s="15">
         <v>42004</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="16">
         <v>121</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="16">
         <v>-8.487603</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="16">
         <v>-1027</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="16">
         <v>385</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="16">
         <v>-149</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="16">
         <v>112.018831</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="16">
         <v>-7.61157</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="16">
         <v>-921</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="16">
         <v>385</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="16">
         <v>-523</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="16">
         <v>133.6288</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="16">
         <v>145.983471</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="16">
         <v>72.794343</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="16">
         <v>45</v>
       </c>
-      <c r="P4" s="10">
-        <f>O4/$B4</f>
+      <c r="P4" s="21">
+        <f t="shared" ref="P4:P9" si="0">O4/$B4</f>
         <v>0.371900826446281</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="16">
         <v>76</v>
       </c>
-      <c r="R4" s="10">
-        <f>Q4/$B4</f>
+      <c r="R4" s="21">
+        <f t="shared" ref="R4:R9" si="1">Q4/$B4</f>
         <v>0.628099173553719</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="16">
         <v>40</v>
       </c>
-      <c r="T4" s="10">
-        <f>S4/$B4</f>
+      <c r="T4" s="21">
+        <f t="shared" ref="T4:T9" si="2">S4/$B4</f>
         <v>0.330578512396694</v>
       </c>
-      <c r="U4" s="12">
-        <f>S4/Q4</f>
+      <c r="U4" s="23">
+        <f t="shared" ref="U4:U9" si="3">S4/Q4</f>
         <v>0.526315789473684</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="6">
+      <c r="A5" s="17">
         <v>42369</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="18">
         <v>111</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="18">
         <v>19.45045</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="18">
         <v>2159</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="18">
         <v>533</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="18">
         <v>-223</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="18">
         <v>145.701796</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="18">
         <v>18.594595</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="18">
         <v>2064</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="18">
         <v>533</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="18">
         <v>-843</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="18">
         <v>195.780925</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="18">
         <v>182.774775</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="18">
         <v>108.320961</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="18">
         <v>55</v>
       </c>
-      <c r="P5" s="11">
-        <f>O5/$B5</f>
+      <c r="P5" s="22">
+        <f t="shared" si="0"/>
         <v>0.495495495495495</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="18">
         <v>56</v>
       </c>
-      <c r="R5" s="11">
-        <f>Q5/$B5</f>
+      <c r="R5" s="22">
+        <f t="shared" si="1"/>
         <v>0.504504504504504</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="18">
         <v>37</v>
       </c>
-      <c r="T5" s="11">
-        <f>S5/$B5</f>
+      <c r="T5" s="22">
+        <f t="shared" si="2"/>
         <v>0.333333333333333</v>
       </c>
-      <c r="U5" s="13">
-        <f>S5/Q5</f>
+      <c r="U5" s="24">
+        <f t="shared" si="3"/>
         <v>0.660714285714286</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:21">
-      <c r="A6" s="4">
+    <row r="6" s="12" customFormat="1" spans="1:21">
+      <c r="A6" s="15">
         <v>42735</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="16">
         <v>120</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="16">
         <v>-4.733333</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="16">
         <v>-568</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="16">
         <v>375</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="16">
         <v>-123</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="16">
         <v>105.987294</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="16">
         <v>-3.666667</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="16">
         <v>-440</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="16">
         <v>375</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="16">
         <v>-344</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="16">
         <v>119.883791</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="16">
         <v>158.125</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="16">
         <v>98.016425</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="16">
         <v>49</v>
       </c>
-      <c r="P6" s="10">
-        <f>O6/$B6</f>
+      <c r="P6" s="21">
+        <f t="shared" si="0"/>
         <v>0.408333333333333</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="16">
         <v>71</v>
       </c>
-      <c r="R6" s="10">
-        <f>Q6/$B6</f>
+      <c r="R6" s="21">
+        <f t="shared" si="1"/>
         <v>0.591666666666667</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="16">
         <v>41</v>
       </c>
-      <c r="T6" s="10">
-        <f>S6/$B6</f>
+      <c r="T6" s="21">
+        <f t="shared" si="2"/>
         <v>0.341666666666667</v>
       </c>
-      <c r="U6" s="12">
-        <f>S6/Q6</f>
+      <c r="U6" s="23">
+        <f t="shared" si="3"/>
         <v>0.577464788732394</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:21">
-      <c r="A7" s="4">
+    <row r="7" s="12" customFormat="1" spans="1:21">
+      <c r="A7" s="15">
         <v>43100</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="16">
         <v>108</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="16">
         <v>-12.935185</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="16">
         <v>-1397</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="16">
         <v>568</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="16">
         <v>-116</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="16">
         <v>111.861503</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="16">
         <v>-21.666667</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="16">
         <v>-2340</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="16">
         <v>568</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="16">
         <v>-451</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="16">
         <v>129.206637</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="16">
         <v>138.888889</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="16">
         <v>64.351304</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="16">
         <v>37</v>
       </c>
-      <c r="P7" s="10">
-        <f>O7/$B7</f>
+      <c r="P7" s="21">
+        <f t="shared" si="0"/>
         <v>0.342592592592593</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="16">
         <v>71</v>
       </c>
-      <c r="R7" s="10">
-        <f>Q7/$B7</f>
+      <c r="R7" s="21">
+        <f t="shared" si="1"/>
         <v>0.657407407407407</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="16">
         <v>29</v>
       </c>
-      <c r="T7" s="10">
-        <f>S7/$B7</f>
+      <c r="T7" s="21">
+        <f t="shared" si="2"/>
         <v>0.268518518518519</v>
       </c>
-      <c r="U7" s="12">
-        <f>S7/Q7</f>
+      <c r="U7" s="23">
+        <f t="shared" si="3"/>
         <v>0.408450704225352</v>
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="8">
+      <c r="A8" s="19">
         <v>43465</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="20">
         <v>126</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="20">
         <v>25.460317</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="20">
         <v>3208</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="20">
         <v>934</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="20">
         <v>-136</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="20">
         <v>184.839461</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="20">
         <v>20.952381</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="20">
         <v>2640</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="20">
         <v>934</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="20">
         <v>-499</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="20">
         <v>216.605516</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="20">
         <v>221.484127</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="20">
         <v>87.926036</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="20">
         <v>54</v>
       </c>
-      <c r="P8" s="11">
-        <f>O8/$B8</f>
+      <c r="P8" s="22">
+        <f t="shared" si="0"/>
         <v>0.428571428571429</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="20">
         <v>72</v>
       </c>
-      <c r="R8" s="11">
-        <f>Q8/$B8</f>
+      <c r="R8" s="22">
+        <f t="shared" si="1"/>
         <v>0.571428571428571</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="20">
         <v>62</v>
       </c>
-      <c r="T8" s="11">
-        <f>S8/$B8</f>
+      <c r="T8" s="22">
+        <f t="shared" si="2"/>
         <v>0.492063492063492</v>
       </c>
-      <c r="U8" s="13">
-        <f>S8/Q8</f>
+      <c r="U8" s="24">
+        <f t="shared" si="3"/>
         <v>0.861111111111111</v>
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="6">
+      <c r="A9" s="17">
         <v>43830</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="18">
         <v>14</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="18">
         <v>6.428571</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="18">
         <v>90</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="18">
         <v>227</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="18">
         <v>-122</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="18">
         <v>105.739676</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="18">
         <v>-3.357143</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="18">
         <v>-47</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="18">
         <v>227</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="18">
         <v>-211</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="18">
         <v>123.359142</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="18">
         <v>232.071429</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="18">
         <v>120.016322</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="18">
         <v>6</v>
       </c>
-      <c r="P9" s="11">
-        <f>O9/$B9</f>
+      <c r="P9" s="22">
+        <f t="shared" si="0"/>
         <v>0.428571428571429</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="18">
         <v>8</v>
       </c>
-      <c r="R9" s="11">
-        <f>Q9/$B9</f>
+      <c r="R9" s="22">
+        <f t="shared" si="1"/>
         <v>0.571428571428571</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="18">
         <v>4</v>
       </c>
-      <c r="T9" s="11">
-        <f>S9/$B9</f>
+      <c r="T9" s="22">
+        <f t="shared" si="2"/>
         <v>0.285714285714286</v>
       </c>
-      <c r="U9" s="13">
-        <f>S9/Q9</f>
+      <c r="U9" s="24">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
@@ -4766,4 +4790,1375 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <cols>
+    <col min="7" max="7" width="11.7272727272727" customWidth="1"/>
+    <col min="8" max="8" width="11.7272727272727"/>
+    <col min="9" max="9" width="5.63636363636364" customWidth="1"/>
+    <col min="10" max="11" width="14"/>
+    <col min="12" max="12" width="12.8181818181818"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:7">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A4" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SUM(D4:D10)</f>
+        <v>241</v>
+      </c>
+      <c r="I4" s="1">
+        <f>SUM(C4:C10)</f>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="7"/>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <v>39</v>
+      </c>
+      <c r="D5" s="8">
+        <v>4104</v>
+      </c>
+      <c r="E5" s="8">
+        <v>105.230769</v>
+      </c>
+      <c r="F5" s="8">
+        <v>4104</v>
+      </c>
+      <c r="G5" s="8">
+        <v>105.230769</v>
+      </c>
+      <c r="H5">
+        <f>D5+D6</f>
+        <v>8997</v>
+      </c>
+      <c r="I5">
+        <f>C5+C6</f>
+        <v>81</v>
+      </c>
+      <c r="J5">
+        <f>H5/I5</f>
+        <v>111.074074074074</v>
+      </c>
+      <c r="K5">
+        <f>J5/-J7</f>
+        <v>1.80133834153935</v>
+      </c>
+      <c r="L5">
+        <f>I5/I7</f>
+        <v>0.570422535211268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="7"/>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>42</v>
+      </c>
+      <c r="D6" s="10">
+        <v>4893</v>
+      </c>
+      <c r="E6" s="10">
+        <v>116.5</v>
+      </c>
+      <c r="F6" s="10">
+        <v>4893</v>
+      </c>
+      <c r="G6" s="10">
+        <v>116.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8">
+        <v>-535</v>
+      </c>
+      <c r="E7" s="8">
+        <v>-35.666667</v>
+      </c>
+      <c r="F7" s="8">
+        <v>-535</v>
+      </c>
+      <c r="G7" s="8">
+        <v>-35.666667</v>
+      </c>
+      <c r="H7">
+        <f>SUM(D7:D10)</f>
+        <v>-8756</v>
+      </c>
+      <c r="I7">
+        <f>SUM(C7:C10)</f>
+        <v>142</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J12" si="0">H7/I7</f>
+        <v>-61.6619718309859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="7"/>
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10">
+        <v>-619</v>
+      </c>
+      <c r="E8" s="10">
+        <v>-34.388889</v>
+      </c>
+      <c r="F8" s="10">
+        <v>-619</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-34.388889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="7"/>
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8">
+        <v>48</v>
+      </c>
+      <c r="D9" s="8">
+        <v>-3254</v>
+      </c>
+      <c r="E9" s="8">
+        <v>-67.791667</v>
+      </c>
+      <c r="F9" s="8">
+        <v>-3326</v>
+      </c>
+      <c r="G9" s="8">
+        <v>-69.291667</v>
+      </c>
+      <c r="H9">
+        <f>F9+F7</f>
+        <v>-3861</v>
+      </c>
+      <c r="I9">
+        <f>C7+C9</f>
+        <v>63</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>-61.2857142857143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="7"/>
+      <c r="B10" s="9">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10">
+        <v>61</v>
+      </c>
+      <c r="D10" s="10">
+        <v>-4348</v>
+      </c>
+      <c r="E10" s="10">
+        <v>-71.278689</v>
+      </c>
+      <c r="F10" s="10">
+        <v>-5316</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-87.147541</v>
+      </c>
+      <c r="H10">
+        <f>F10+F8</f>
+        <v>-5935</v>
+      </c>
+      <c r="I10">
+        <f>C8+C10</f>
+        <v>79</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>-75.126582278481</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A11" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SUM(D11:D17)</f>
+        <v>-76</v>
+      </c>
+      <c r="I11" s="1">
+        <f>SUM(C11:C17)</f>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="11"/>
+      <c r="B12" s="9">
+        <v>3</v>
+      </c>
+      <c r="C12" s="10">
+        <v>42</v>
+      </c>
+      <c r="D12" s="10">
+        <v>5398</v>
+      </c>
+      <c r="E12" s="10">
+        <v>128.52381</v>
+      </c>
+      <c r="F12" s="10">
+        <v>5398</v>
+      </c>
+      <c r="G12" s="10">
+        <v>128.52381</v>
+      </c>
+      <c r="H12">
+        <f>D12+D13</f>
+        <v>12250</v>
+      </c>
+      <c r="I12">
+        <f>C12+C13</f>
+        <v>89</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J17" si="1">H12/I12</f>
+        <v>137.640449438202</v>
+      </c>
+      <c r="K12">
+        <f>J12/-J14</f>
+        <v>1.58566800423696</v>
+      </c>
+      <c r="L12">
+        <f>I12/I14</f>
+        <v>0.626760563380282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" s="8">
+        <v>47</v>
+      </c>
+      <c r="D13" s="8">
+        <v>6852</v>
+      </c>
+      <c r="E13" s="8">
+        <v>145.787234</v>
+      </c>
+      <c r="F13" s="8">
+        <v>6852</v>
+      </c>
+      <c r="G13" s="8">
+        <v>145.787234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="11"/>
+      <c r="B14" s="9">
+        <v>5</v>
+      </c>
+      <c r="C14" s="10">
+        <v>12</v>
+      </c>
+      <c r="D14" s="10">
+        <v>-585</v>
+      </c>
+      <c r="E14" s="10">
+        <v>-48.75</v>
+      </c>
+      <c r="F14" s="10">
+        <v>-585</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-48.75</v>
+      </c>
+      <c r="H14">
+        <f>SUM(D14:D17)</f>
+        <v>-12326</v>
+      </c>
+      <c r="I14">
+        <f>SUM(C14:C17)</f>
+        <v>142</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>-86.8028169014084</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="11"/>
+      <c r="B15" s="4">
+        <v>6</v>
+      </c>
+      <c r="C15" s="8">
+        <v>12</v>
+      </c>
+      <c r="D15" s="8">
+        <v>-483</v>
+      </c>
+      <c r="E15" s="8">
+        <v>-40.25</v>
+      </c>
+      <c r="F15" s="8">
+        <v>-483</v>
+      </c>
+      <c r="G15" s="8">
+        <v>-40.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="11"/>
+      <c r="B16" s="9">
+        <v>7</v>
+      </c>
+      <c r="C16" s="10">
+        <v>66</v>
+      </c>
+      <c r="D16" s="10">
+        <v>-6816</v>
+      </c>
+      <c r="E16" s="10">
+        <v>-103.272727</v>
+      </c>
+      <c r="F16" s="10">
+        <v>-7368</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-111.636364</v>
+      </c>
+      <c r="H16">
+        <f>F16+F14</f>
+        <v>-7953</v>
+      </c>
+      <c r="I16">
+        <f>C14+C16</f>
+        <v>78</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>-101.961538461538</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="11"/>
+      <c r="B17" s="4">
+        <v>8</v>
+      </c>
+      <c r="C17" s="8">
+        <v>52</v>
+      </c>
+      <c r="D17" s="8">
+        <v>-4442</v>
+      </c>
+      <c r="E17" s="8">
+        <v>-85.423077</v>
+      </c>
+      <c r="F17" s="8">
+        <v>-4416</v>
+      </c>
+      <c r="G17" s="8">
+        <v>-84.923077</v>
+      </c>
+      <c r="H17">
+        <f>F17+F15</f>
+        <v>-4899</v>
+      </c>
+      <c r="I17">
+        <f>C15+C17</f>
+        <v>64</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>-76.546875</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A18" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="1">
+        <f>SUM(D18:D24)</f>
+        <v>-393</v>
+      </c>
+      <c r="I18" s="1">
+        <f>SUM(C18:C24)</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="7"/>
+      <c r="B19" s="4">
+        <v>3</v>
+      </c>
+      <c r="C19" s="8">
+        <v>46</v>
+      </c>
+      <c r="D19" s="8">
+        <v>4158</v>
+      </c>
+      <c r="E19" s="8">
+        <v>90.391304</v>
+      </c>
+      <c r="F19" s="8">
+        <v>4158</v>
+      </c>
+      <c r="G19" s="8">
+        <v>90.391304</v>
+      </c>
+      <c r="H19">
+        <f>D19+D20</f>
+        <v>8469</v>
+      </c>
+      <c r="I19">
+        <f>C19+C20</f>
+        <v>89</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:J24" si="2">H19/I19</f>
+        <v>95.1573033707865</v>
+      </c>
+      <c r="K19">
+        <f>J19/-J21</f>
+        <v>1.51401261287304</v>
+      </c>
+      <c r="L19">
+        <f>I19/I21</f>
+        <v>0.631205673758865</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="7"/>
+      <c r="B20" s="9">
+        <v>4</v>
+      </c>
+      <c r="C20" s="10">
+        <v>43</v>
+      </c>
+      <c r="D20" s="10">
+        <v>4311</v>
+      </c>
+      <c r="E20" s="10">
+        <v>100.255814</v>
+      </c>
+      <c r="F20" s="10">
+        <v>4311</v>
+      </c>
+      <c r="G20" s="10">
+        <v>100.255814</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="7"/>
+      <c r="B21" s="4">
+        <v>5</v>
+      </c>
+      <c r="C21" s="8">
+        <v>17</v>
+      </c>
+      <c r="D21" s="8">
+        <v>-494</v>
+      </c>
+      <c r="E21" s="8">
+        <v>-29.058824</v>
+      </c>
+      <c r="F21" s="8">
+        <v>-494</v>
+      </c>
+      <c r="G21" s="8">
+        <v>-29.058824</v>
+      </c>
+      <c r="H21">
+        <f>SUM(D21:D24)</f>
+        <v>-8862</v>
+      </c>
+      <c r="I21">
+        <f>SUM(C21:C24)</f>
+        <v>141</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>-62.8510638297872</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="7"/>
+      <c r="B22" s="9">
+        <v>6</v>
+      </c>
+      <c r="C22" s="10">
+        <v>22</v>
+      </c>
+      <c r="D22" s="10">
+        <v>-698</v>
+      </c>
+      <c r="E22" s="10">
+        <v>-31.727273</v>
+      </c>
+      <c r="F22" s="10">
+        <v>-698</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-31.727273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="7"/>
+      <c r="B23" s="4">
+        <v>7</v>
+      </c>
+      <c r="C23" s="8">
+        <v>47</v>
+      </c>
+      <c r="D23" s="8">
+        <v>-3674</v>
+      </c>
+      <c r="E23" s="8">
+        <v>-78.170213</v>
+      </c>
+      <c r="F23" s="8">
+        <v>-4029</v>
+      </c>
+      <c r="G23" s="8">
+        <v>-85.723404</v>
+      </c>
+      <c r="H23">
+        <f>F23+F21</f>
+        <v>-4523</v>
+      </c>
+      <c r="I23">
+        <f>C21+C23</f>
+        <v>64</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>-70.671875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="7"/>
+      <c r="B24" s="9">
+        <v>8</v>
+      </c>
+      <c r="C24" s="10">
+        <v>55</v>
+      </c>
+      <c r="D24" s="10">
+        <v>-3996</v>
+      </c>
+      <c r="E24" s="10">
+        <v>-72.654545</v>
+      </c>
+      <c r="F24" s="10">
+        <v>-4173</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-75.872727</v>
+      </c>
+      <c r="H24">
+        <f>F24+F22</f>
+        <v>-4871</v>
+      </c>
+      <c r="I24">
+        <f>C22+C24</f>
+        <v>77</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>-63.2597402597403</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A25" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6">
+        <v>29</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="1">
+        <f>SUM(D25:D31)</f>
+        <v>667</v>
+      </c>
+      <c r="I25" s="1">
+        <f>SUM(C25:C31)</f>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="11"/>
+      <c r="B26" s="9">
+        <v>3</v>
+      </c>
+      <c r="C26" s="10">
+        <v>53</v>
+      </c>
+      <c r="D26" s="10">
+        <v>5053</v>
+      </c>
+      <c r="E26" s="10">
+        <v>95.339623</v>
+      </c>
+      <c r="F26" s="10">
+        <v>5053</v>
+      </c>
+      <c r="G26" s="10">
+        <v>95.339623</v>
+      </c>
+      <c r="H26">
+        <f>D26+D27</f>
+        <v>8541</v>
+      </c>
+      <c r="I26">
+        <f>C26+C27</f>
+        <v>85</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26:J31" si="3">H26/I26</f>
+        <v>100.482352941176</v>
+      </c>
+      <c r="K26">
+        <f>J26/-J28</f>
+        <v>1.68448953368495</v>
+      </c>
+      <c r="L26">
+        <f>I26/I28</f>
+        <v>0.643939393939394</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="11"/>
+      <c r="B27" s="4">
+        <v>4</v>
+      </c>
+      <c r="C27" s="8">
+        <v>32</v>
+      </c>
+      <c r="D27" s="8">
+        <v>3488</v>
+      </c>
+      <c r="E27" s="8">
+        <v>109</v>
+      </c>
+      <c r="F27" s="8">
+        <v>3488</v>
+      </c>
+      <c r="G27" s="8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="11"/>
+      <c r="B28" s="9">
+        <v>5</v>
+      </c>
+      <c r="C28" s="10">
+        <v>15</v>
+      </c>
+      <c r="D28" s="10">
+        <v>-356</v>
+      </c>
+      <c r="E28" s="10">
+        <v>-23.733333</v>
+      </c>
+      <c r="F28" s="10">
+        <v>-356</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-23.733333</v>
+      </c>
+      <c r="H28">
+        <f>SUM(D28:D31)</f>
+        <v>-7874</v>
+      </c>
+      <c r="I28">
+        <f>SUM(C28:C31)</f>
+        <v>132</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>-59.6515151515151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="11"/>
+      <c r="B29" s="4">
+        <v>6</v>
+      </c>
+      <c r="C29" s="8">
+        <v>21</v>
+      </c>
+      <c r="D29" s="8">
+        <v>-755</v>
+      </c>
+      <c r="E29" s="8">
+        <v>-35.952381</v>
+      </c>
+      <c r="F29" s="8">
+        <v>-755</v>
+      </c>
+      <c r="G29" s="8">
+        <v>-35.952381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="11"/>
+      <c r="B30" s="9">
+        <v>7</v>
+      </c>
+      <c r="C30" s="10">
+        <v>41</v>
+      </c>
+      <c r="D30" s="10">
+        <v>-2754</v>
+      </c>
+      <c r="E30" s="10">
+        <v>-67.170732</v>
+      </c>
+      <c r="F30" s="10">
+        <v>-2329</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-56.804878</v>
+      </c>
+      <c r="H30">
+        <f>F30+F28</f>
+        <v>-2685</v>
+      </c>
+      <c r="I30">
+        <f>C28+C30</f>
+        <v>56</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>-47.9464285714286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="11"/>
+      <c r="B31" s="4">
+        <v>8</v>
+      </c>
+      <c r="C31" s="8">
+        <v>55</v>
+      </c>
+      <c r="D31" s="8">
+        <v>-4009</v>
+      </c>
+      <c r="E31" s="8">
+        <v>-72.890909</v>
+      </c>
+      <c r="F31" s="8">
+        <v>-5181</v>
+      </c>
+      <c r="G31" s="8">
+        <v>-94.2</v>
+      </c>
+      <c r="H31">
+        <f>F31+F29</f>
+        <v>-5936</v>
+      </c>
+      <c r="I31">
+        <f>C29+C31</f>
+        <v>76</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>-78.1052631578947</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A32" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6">
+        <v>10</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="1">
+        <f>SUM(D32:D38)</f>
+        <v>4459</v>
+      </c>
+      <c r="I32" s="1">
+        <f>SUM(C32:C38)</f>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="7"/>
+      <c r="B33" s="4">
+        <v>3</v>
+      </c>
+      <c r="C33" s="8">
+        <v>48</v>
+      </c>
+      <c r="D33" s="8">
+        <v>7048</v>
+      </c>
+      <c r="E33" s="8">
+        <v>146.833333</v>
+      </c>
+      <c r="F33" s="8">
+        <v>7048</v>
+      </c>
+      <c r="G33" s="8">
+        <v>146.833333</v>
+      </c>
+      <c r="H33">
+        <f>D33+D34</f>
+        <v>17233</v>
+      </c>
+      <c r="I33">
+        <f>C33+C34</f>
+        <v>102</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ref="J33:J38" si="4">H33/I33</f>
+        <v>168.950980392157</v>
+      </c>
+      <c r="K33">
+        <f>J33/-J35</f>
+        <v>1.77230557167285</v>
+      </c>
+      <c r="L33">
+        <f>I33/I35</f>
+        <v>0.761194029850746</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="7"/>
+      <c r="B34" s="9">
+        <v>4</v>
+      </c>
+      <c r="C34" s="10">
+        <v>54</v>
+      </c>
+      <c r="D34" s="10">
+        <v>10185</v>
+      </c>
+      <c r="E34" s="10">
+        <v>188.611111</v>
+      </c>
+      <c r="F34" s="10">
+        <v>10185</v>
+      </c>
+      <c r="G34" s="10">
+        <v>188.611111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="7"/>
+      <c r="B35" s="4">
+        <v>5</v>
+      </c>
+      <c r="C35" s="8">
+        <v>15</v>
+      </c>
+      <c r="D35" s="8">
+        <v>-723</v>
+      </c>
+      <c r="E35" s="8">
+        <v>-48.2</v>
+      </c>
+      <c r="F35" s="8">
+        <v>-723</v>
+      </c>
+      <c r="G35" s="8">
+        <v>-48.2</v>
+      </c>
+      <c r="H35">
+        <f>SUM(D35:D38)</f>
+        <v>-12774</v>
+      </c>
+      <c r="I35">
+        <f>SUM(C35:C38)</f>
+        <v>134</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>-95.3283582089552</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="7"/>
+      <c r="B36" s="9">
+        <v>6</v>
+      </c>
+      <c r="C36" s="10">
+        <v>13</v>
+      </c>
+      <c r="D36" s="10">
+        <v>-397</v>
+      </c>
+      <c r="E36" s="10">
+        <v>-30.538462</v>
+      </c>
+      <c r="F36" s="10">
+        <v>-397</v>
+      </c>
+      <c r="G36" s="10">
+        <v>-30.538462</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="7"/>
+      <c r="B37" s="4">
+        <v>7</v>
+      </c>
+      <c r="C37" s="8">
+        <v>47</v>
+      </c>
+      <c r="D37" s="8">
+        <v>-4996</v>
+      </c>
+      <c r="E37" s="8">
+        <v>-106.297872</v>
+      </c>
+      <c r="F37" s="8">
+        <v>-4842</v>
+      </c>
+      <c r="G37" s="8">
+        <v>-103.021277</v>
+      </c>
+      <c r="H37">
+        <f>F37+F35</f>
+        <v>-5565</v>
+      </c>
+      <c r="I37">
+        <f>C35+C37</f>
+        <v>62</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="4"/>
+        <v>-89.758064516129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="7"/>
+      <c r="B38" s="9">
+        <v>8</v>
+      </c>
+      <c r="C38" s="10">
+        <v>59</v>
+      </c>
+      <c r="D38" s="10">
+        <v>-6658</v>
+      </c>
+      <c r="E38" s="10">
+        <v>-112.847458</v>
+      </c>
+      <c r="F38" s="10">
+        <v>-7274</v>
+      </c>
+      <c r="G38" s="10">
+        <v>-123.288136</v>
+      </c>
+      <c r="H38">
+        <f>F38+F36</f>
+        <v>-7671</v>
+      </c>
+      <c r="I38">
+        <f>C36+C38</f>
+        <v>72</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>-106.541666666667</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A39" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0</v>
+      </c>
+      <c r="C39" s="6">
+        <v>4</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="1">
+        <f>SUM(D39:D45)</f>
+        <v>1015</v>
+      </c>
+      <c r="I39" s="1">
+        <f>SUM(C39:C45)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="11"/>
+      <c r="B40" s="9">
+        <v>3</v>
+      </c>
+      <c r="C40" s="10">
+        <v>12</v>
+      </c>
+      <c r="D40" s="10">
+        <v>1853</v>
+      </c>
+      <c r="E40" s="10">
+        <v>154.416667</v>
+      </c>
+      <c r="F40" s="10">
+        <v>1853</v>
+      </c>
+      <c r="G40" s="10">
+        <v>154.416667</v>
+      </c>
+      <c r="H40">
+        <f>D40+D41</f>
+        <v>2383</v>
+      </c>
+      <c r="I40">
+        <f>C40+C41</f>
+        <v>17</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ref="J40:J45" si="5">H40/I40</f>
+        <v>140.176470588235</v>
+      </c>
+      <c r="K40">
+        <f>J40/-J42</f>
+        <v>1.84442724458204</v>
+      </c>
+      <c r="L40">
+        <f>I40/I42</f>
+        <v>0.944444444444444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="11"/>
+      <c r="B41" s="4">
+        <v>4</v>
+      </c>
+      <c r="C41" s="8">
+        <v>5</v>
+      </c>
+      <c r="D41" s="8">
+        <v>530</v>
+      </c>
+      <c r="E41" s="8">
+        <v>106</v>
+      </c>
+      <c r="F41" s="8">
+        <v>530</v>
+      </c>
+      <c r="G41" s="8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="11"/>
+      <c r="B42" s="9">
+        <v>5</v>
+      </c>
+      <c r="C42" s="10">
+        <v>3</v>
+      </c>
+      <c r="D42" s="10">
+        <v>-72</v>
+      </c>
+      <c r="E42" s="10">
+        <v>-24</v>
+      </c>
+      <c r="F42" s="10">
+        <v>-72</v>
+      </c>
+      <c r="G42" s="10">
+        <v>-24</v>
+      </c>
+      <c r="H42">
+        <f>SUM(D42:D45)</f>
+        <v>-1368</v>
+      </c>
+      <c r="I42">
+        <f>SUM(C42:C45)</f>
+        <v>18</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="11"/>
+      <c r="B43" s="4">
+        <v>6</v>
+      </c>
+      <c r="C43" s="8">
+        <v>4</v>
+      </c>
+      <c r="D43" s="8">
+        <v>-126</v>
+      </c>
+      <c r="E43" s="8">
+        <v>-31.5</v>
+      </c>
+      <c r="F43" s="8">
+        <v>-126</v>
+      </c>
+      <c r="G43" s="8">
+        <v>-31.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="11"/>
+      <c r="B44" s="9">
+        <v>7</v>
+      </c>
+      <c r="C44" s="10">
+        <v>6</v>
+      </c>
+      <c r="D44" s="10">
+        <v>-708</v>
+      </c>
+      <c r="E44" s="10">
+        <v>-118</v>
+      </c>
+      <c r="F44" s="10">
+        <v>-801</v>
+      </c>
+      <c r="G44" s="10">
+        <v>-133.5</v>
+      </c>
+      <c r="H44">
+        <f>F44+F42</f>
+        <v>-873</v>
+      </c>
+      <c r="I44">
+        <f>C42+C44</f>
+        <v>9</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="5"/>
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="11"/>
+      <c r="B45" s="4">
+        <v>8</v>
+      </c>
+      <c r="C45" s="8">
+        <v>5</v>
+      </c>
+      <c r="D45" s="8">
+        <v>-462</v>
+      </c>
+      <c r="E45" s="8">
+        <v>-92.4</v>
+      </c>
+      <c r="F45" s="8">
+        <v>-465</v>
+      </c>
+      <c r="G45" s="8">
+        <v>-93</v>
+      </c>
+      <c r="H45">
+        <f>F45+F43</f>
+        <v>-591</v>
+      </c>
+      <c r="I45">
+        <f>C43+C45</f>
+        <v>9</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="5"/>
+        <v>-65.6666666666667</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47">
+        <f>SUM(D4:D46)</f>
+        <v>5913</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A39:A45"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/HighLow.xlsx
+++ b/HighLow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="12495" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="12495" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Year" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="Sell" sheetId="7" r:id="rId7"/>
     <sheet name="Diff" sheetId="9" r:id="rId8"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId9"/>
+    <sheet name="PreState" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="29">
   <si>
     <t>stop</t>
   </si>
@@ -103,6 +104,18 @@
   <si>
     <t>NaN</t>
   </si>
+  <si>
+    <t>DiffH</t>
+  </si>
+  <si>
+    <t>DiffL</t>
+  </si>
+  <si>
+    <t>PreState</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
 </sst>
 </file>
 
@@ -111,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +212,48 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -258,7 +313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -397,6 +452,54 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -406,65 +509,71 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,41 +884,41 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
       <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48" t="s">
+      <c r="K2" s="63"/>
+      <c r="L2" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="49" t="s">
+      <c r="M2" s="64"/>
+      <c r="N2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="48" t="s">
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="48"/>
-      <c r="S2" s="49" t="s">
+      <c r="R2" s="64"/>
+      <c r="S2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="49"/>
+      <c r="T2" s="61"/>
       <c r="V2" s="24"/>
       <c r="W2" s="24"/>
       <c r="X2" s="24"/>
@@ -1381,41 +1490,41 @@
       <c r="X16" s="45"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
       <c r="H17" s="11" t="s">
         <v>3</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="47" t="s">
+      <c r="J17" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="47"/>
-      <c r="L17" s="48" t="s">
+      <c r="K17" s="63"/>
+      <c r="L17" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="M17" s="48"/>
-      <c r="N17" s="49" t="s">
+      <c r="M17" s="64"/>
+      <c r="N17" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="48" t="s">
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="R17" s="48"/>
-      <c r="S17" s="49" t="s">
+      <c r="R17" s="64"/>
+      <c r="S17" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="T17" s="49"/>
+      <c r="T17" s="61"/>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="11"/>
@@ -1960,6 +2069,573 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="6" max="6" width="9.125" style="86" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="86" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="80" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="80" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="52"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="65"/>
+      <c r="F1" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="81"/>
+      <c r="H1" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="75"/>
+      <c r="J1" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="65"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="73">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70">
+        <v>0</v>
+      </c>
+      <c r="C4" s="51">
+        <v>51</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="84">
+        <v>9640</v>
+      </c>
+      <c r="G4" s="84">
+        <v>189.01960800000001</v>
+      </c>
+      <c r="H4" s="78">
+        <v>5823</v>
+      </c>
+      <c r="I4" s="78">
+        <v>114.17647100000001</v>
+      </c>
+      <c r="J4" s="51">
+        <v>3817</v>
+      </c>
+      <c r="K4" s="51">
+        <v>74.843136999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="73"/>
+      <c r="B5" s="47">
+        <v>3</v>
+      </c>
+      <c r="C5" s="49">
+        <v>55</v>
+      </c>
+      <c r="D5" s="49">
+        <v>6947</v>
+      </c>
+      <c r="E5" s="49">
+        <v>126.309091</v>
+      </c>
+      <c r="F5" s="85">
+        <v>8053</v>
+      </c>
+      <c r="G5" s="85">
+        <v>146.418182</v>
+      </c>
+      <c r="H5" s="79">
+        <v>4433</v>
+      </c>
+      <c r="I5" s="79">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="J5" s="49">
+        <v>3620</v>
+      </c>
+      <c r="K5" s="49">
+        <v>65.818181999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="73"/>
+      <c r="B6" s="71">
+        <v>4</v>
+      </c>
+      <c r="C6" s="51">
+        <v>161</v>
+      </c>
+      <c r="D6" s="51">
+        <v>22472</v>
+      </c>
+      <c r="E6" s="51">
+        <v>139.57764</v>
+      </c>
+      <c r="F6" s="84">
+        <v>31663</v>
+      </c>
+      <c r="G6" s="84">
+        <v>196.66459599999999</v>
+      </c>
+      <c r="H6" s="78">
+        <v>25529</v>
+      </c>
+      <c r="I6" s="78">
+        <v>158.56521699999999</v>
+      </c>
+      <c r="J6" s="51">
+        <v>6134</v>
+      </c>
+      <c r="K6" s="51">
+        <v>38.099378999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="73"/>
+      <c r="B7" s="47">
+        <v>5</v>
+      </c>
+      <c r="C7" s="49">
+        <v>20</v>
+      </c>
+      <c r="D7" s="49">
+        <v>-628</v>
+      </c>
+      <c r="E7" s="49">
+        <v>-31.4</v>
+      </c>
+      <c r="F7" s="85">
+        <v>3490</v>
+      </c>
+      <c r="G7" s="85">
+        <v>174.5</v>
+      </c>
+      <c r="H7" s="79">
+        <v>2155</v>
+      </c>
+      <c r="I7" s="79">
+        <v>107.75</v>
+      </c>
+      <c r="J7" s="49">
+        <v>1335</v>
+      </c>
+      <c r="K7" s="49">
+        <v>66.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="73"/>
+      <c r="B8" s="71">
+        <v>6</v>
+      </c>
+      <c r="C8" s="51">
+        <v>75</v>
+      </c>
+      <c r="D8" s="51">
+        <v>-2658</v>
+      </c>
+      <c r="E8" s="51">
+        <v>-35.44</v>
+      </c>
+      <c r="F8" s="84">
+        <v>15802</v>
+      </c>
+      <c r="G8" s="84">
+        <v>210.693333</v>
+      </c>
+      <c r="H8" s="78">
+        <v>13103</v>
+      </c>
+      <c r="I8" s="78">
+        <v>174.70666700000001</v>
+      </c>
+      <c r="J8" s="51">
+        <v>2699</v>
+      </c>
+      <c r="K8" s="51">
+        <v>35.986666999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="73"/>
+      <c r="B9" s="47">
+        <v>7</v>
+      </c>
+      <c r="C9" s="49">
+        <v>76</v>
+      </c>
+      <c r="D9" s="49">
+        <v>-6174</v>
+      </c>
+      <c r="E9" s="49">
+        <v>-81.236841999999996</v>
+      </c>
+      <c r="F9" s="85">
+        <v>11056</v>
+      </c>
+      <c r="G9" s="85">
+        <v>145.47368399999999</v>
+      </c>
+      <c r="H9" s="79">
+        <v>5905</v>
+      </c>
+      <c r="I9" s="79">
+        <v>77.697367999999997</v>
+      </c>
+      <c r="J9" s="49">
+        <v>5151</v>
+      </c>
+      <c r="K9" s="49">
+        <v>67.776315999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="73"/>
+      <c r="B10" s="71">
+        <v>8</v>
+      </c>
+      <c r="C10" s="51">
+        <v>201</v>
+      </c>
+      <c r="D10" s="51">
+        <v>-17429</v>
+      </c>
+      <c r="E10" s="51">
+        <v>-86.711443000000003</v>
+      </c>
+      <c r="F10" s="84">
+        <v>31334</v>
+      </c>
+      <c r="G10" s="84">
+        <v>155.890547</v>
+      </c>
+      <c r="H10" s="78">
+        <v>24837</v>
+      </c>
+      <c r="I10" s="78">
+        <v>123.56716400000001</v>
+      </c>
+      <c r="J10" s="51">
+        <v>6497</v>
+      </c>
+      <c r="K10" s="51">
+        <v>32.323383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="74">
+        <v>1</v>
+      </c>
+      <c r="B11" s="72">
+        <v>0</v>
+      </c>
+      <c r="C11" s="49">
+        <v>47</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="85">
+        <v>9711</v>
+      </c>
+      <c r="G11" s="85">
+        <v>206.61702099999999</v>
+      </c>
+      <c r="H11" s="79">
+        <v>2542</v>
+      </c>
+      <c r="I11" s="79">
+        <v>54.085106000000003</v>
+      </c>
+      <c r="J11" s="49">
+        <v>7169</v>
+      </c>
+      <c r="K11" s="49">
+        <v>152.531915</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="74"/>
+      <c r="B12" s="71">
+        <v>3</v>
+      </c>
+      <c r="C12" s="51">
+        <v>192</v>
+      </c>
+      <c r="D12" s="51">
+        <v>21316</v>
+      </c>
+      <c r="E12" s="51">
+        <v>111.020833</v>
+      </c>
+      <c r="F12" s="84">
+        <v>32779</v>
+      </c>
+      <c r="G12" s="84">
+        <v>170.72395800000001</v>
+      </c>
+      <c r="H12" s="78">
+        <v>6011</v>
+      </c>
+      <c r="I12" s="78">
+        <v>31.307292</v>
+      </c>
+      <c r="J12" s="51">
+        <v>26768</v>
+      </c>
+      <c r="K12" s="51">
+        <v>139.41666699999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="74"/>
+      <c r="B13" s="47">
+        <v>4</v>
+      </c>
+      <c r="C13" s="49">
+        <v>63</v>
+      </c>
+      <c r="D13" s="49">
+        <v>7818</v>
+      </c>
+      <c r="E13" s="49">
+        <v>124.09523799999999</v>
+      </c>
+      <c r="F13" s="85">
+        <v>10103</v>
+      </c>
+      <c r="G13" s="85">
+        <v>160.36507900000001</v>
+      </c>
+      <c r="H13" s="79">
+        <v>4644</v>
+      </c>
+      <c r="I13" s="79">
+        <v>73.714286000000001</v>
+      </c>
+      <c r="J13" s="49">
+        <v>5459</v>
+      </c>
+      <c r="K13" s="49">
+        <v>86.650794000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="74"/>
+      <c r="B14" s="71">
+        <v>5</v>
+      </c>
+      <c r="C14" s="51">
+        <v>58</v>
+      </c>
+      <c r="D14" s="51">
+        <v>-2139</v>
+      </c>
+      <c r="E14" s="51">
+        <v>-36.879309999999997</v>
+      </c>
+      <c r="F14" s="84">
+        <v>11734</v>
+      </c>
+      <c r="G14" s="84">
+        <v>202.31034500000001</v>
+      </c>
+      <c r="H14" s="78">
+        <v>2218</v>
+      </c>
+      <c r="I14" s="78">
+        <v>38.241379000000002</v>
+      </c>
+      <c r="J14" s="51">
+        <v>9516</v>
+      </c>
+      <c r="K14" s="51">
+        <v>164.06896599999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="74"/>
+      <c r="B15" s="47">
+        <v>6</v>
+      </c>
+      <c r="C15" s="49">
+        <v>17</v>
+      </c>
+      <c r="D15" s="49">
+        <v>-450</v>
+      </c>
+      <c r="E15" s="49">
+        <v>-26.470587999999999</v>
+      </c>
+      <c r="F15" s="85">
+        <v>2946</v>
+      </c>
+      <c r="G15" s="85">
+        <v>173.294118</v>
+      </c>
+      <c r="H15" s="79">
+        <v>838</v>
+      </c>
+      <c r="I15" s="79">
+        <v>49.294117999999997</v>
+      </c>
+      <c r="J15" s="49">
+        <v>2108</v>
+      </c>
+      <c r="K15" s="49">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="74"/>
+      <c r="B16" s="71">
+        <v>7</v>
+      </c>
+      <c r="C16" s="51">
+        <v>186</v>
+      </c>
+      <c r="D16" s="51">
+        <v>-16594</v>
+      </c>
+      <c r="E16" s="51">
+        <v>-89.215053999999995</v>
+      </c>
+      <c r="F16" s="84">
+        <v>30901</v>
+      </c>
+      <c r="G16" s="84">
+        <v>166.13440900000001</v>
+      </c>
+      <c r="H16" s="78">
+        <v>5713</v>
+      </c>
+      <c r="I16" s="78">
+        <v>30.715053999999999</v>
+      </c>
+      <c r="J16" s="51">
+        <v>25188</v>
+      </c>
+      <c r="K16" s="51">
+        <v>135.419355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="74"/>
+      <c r="B17" s="47">
+        <v>8</v>
+      </c>
+      <c r="C17" s="49">
+        <v>89</v>
+      </c>
+      <c r="D17" s="49">
+        <v>-6679</v>
+      </c>
+      <c r="E17" s="49">
+        <v>-75.044944000000001</v>
+      </c>
+      <c r="F17" s="85">
+        <v>12034</v>
+      </c>
+      <c r="G17" s="85">
+        <v>135.213483</v>
+      </c>
+      <c r="H17" s="79">
+        <v>5936</v>
+      </c>
+      <c r="I17" s="79">
+        <v>66.696629000000001</v>
+      </c>
+      <c r="J17" s="49">
+        <v>6098</v>
+      </c>
+      <c r="K17" s="49">
+        <v>68.516853999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A11:A17"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
@@ -1976,25 +2652,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46" t="s">
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="46"/>
+      <c r="M1" s="62"/>
       <c r="O1" s="11" t="s">
         <v>5</v>
       </c>
@@ -2505,25 +3181,25 @@
   <sheetData>
     <row r="1" spans="1:18" ht="14.1" customHeight="1">
       <c r="A1" s="11"/>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="46"/>
+      <c r="N1" s="62"/>
       <c r="O1" s="11" t="s">
         <v>5</v>
       </c>
@@ -3202,25 +3878,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46" t="s">
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="46"/>
+      <c r="M1" s="62"/>
       <c r="O1" s="11" t="s">
         <v>5</v>
       </c>
@@ -3748,25 +4424,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46" t="s">
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="46"/>
+      <c r="M1" s="62"/>
       <c r="P1" s="11" t="s">
         <v>5</v>
       </c>
@@ -4283,8 +4959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4293,22 +4969,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="53" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="46" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="53" t="s">
         <v>20</v>
       </c>
       <c r="M1" s="66" t="s">
@@ -4321,368 +4997,368 @@
       <c r="P1" s="66"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60" t="s">
+      <c r="L2" s="53"/>
+      <c r="M2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="60" t="s">
+      <c r="N2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="O2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="60" t="s">
+      <c r="P2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="60" t="s">
+      <c r="Q2" s="53" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="L3" s="61" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="L3" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="55">
+      <c r="A4" s="48">
         <v>42004</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="49">
         <v>223</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="49">
         <v>1.0807169999999999</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="49">
         <v>241</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="49">
         <v>384</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="49">
         <v>-157</v>
       </c>
-      <c r="G4" s="56">
+      <c r="G4" s="49">
         <v>101.89436600000001</v>
       </c>
-      <c r="H4" s="56">
+      <c r="H4" s="49">
         <v>-3.5829599999999999</v>
       </c>
-      <c r="I4" s="56">
+      <c r="I4" s="49">
         <v>142.340081</v>
       </c>
-      <c r="L4" s="68">
+      <c r="L4" s="60">
         <v>0</v>
       </c>
-      <c r="M4" s="63">
+      <c r="M4" s="56">
         <v>98</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="63" t="s">
+      <c r="P4" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="56" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="55">
+      <c r="A5" s="48">
         <v>42369</v>
       </c>
-      <c r="B5" s="56">
+      <c r="B5" s="49">
         <v>231</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="49">
         <v>-0.32900400000000002</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="49">
         <v>-76</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="49">
         <v>555</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="49">
         <v>-248</v>
       </c>
-      <c r="G5" s="56">
+      <c r="G5" s="49">
         <v>142.49312699999999</v>
       </c>
-      <c r="H5" s="56">
+      <c r="H5" s="49">
         <v>-2.606061</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="49">
         <v>195.352227</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="54">
         <v>3</v>
       </c>
-      <c r="M5" s="65">
+      <c r="M5" s="58">
         <v>247</v>
       </c>
-      <c r="N5" s="65">
+      <c r="N5" s="58">
         <v>28263</v>
       </c>
-      <c r="O5" s="65">
+      <c r="O5" s="58">
         <v>114.425101</v>
       </c>
-      <c r="P5" s="65">
+      <c r="P5" s="58">
         <v>28263</v>
       </c>
-      <c r="Q5" s="65">
+      <c r="Q5" s="58">
         <v>114.425101</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="57">
+      <c r="A6" s="50">
         <v>42735</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="51">
         <v>230</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="51">
         <v>-1.708696</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="51">
         <v>-393</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="51">
         <v>374</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="51">
         <v>-144</v>
       </c>
-      <c r="G6" s="58">
+      <c r="G6" s="51">
         <v>97.872332</v>
       </c>
-      <c r="H6" s="58">
+      <c r="H6" s="51">
         <v>-4.0217390000000002</v>
       </c>
-      <c r="I6" s="58">
+      <c r="I6" s="51">
         <v>157.16734700000001</v>
       </c>
-      <c r="L6" s="68">
+      <c r="L6" s="60">
         <v>4</v>
       </c>
-      <c r="M6" s="63">
+      <c r="M6" s="56">
         <v>224</v>
       </c>
-      <c r="N6" s="63">
+      <c r="N6" s="56">
         <v>30290</v>
       </c>
-      <c r="O6" s="63">
+      <c r="O6" s="56">
         <v>135.22321400000001</v>
       </c>
-      <c r="P6" s="63">
+      <c r="P6" s="56">
         <v>30290</v>
       </c>
-      <c r="Q6" s="63">
+      <c r="Q6" s="56">
         <v>135.22321400000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="55">
+      <c r="A7" s="48">
         <v>43100</v>
       </c>
-      <c r="B7" s="56">
+      <c r="B7" s="49">
         <v>217</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="49">
         <v>3.0737329999999998</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="49">
         <v>667</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="49">
         <v>567</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="49">
         <v>-193</v>
       </c>
-      <c r="G7" s="56">
+      <c r="G7" s="49">
         <v>105.594368</v>
       </c>
-      <c r="H7" s="56">
+      <c r="H7" s="49">
         <v>-0.36866399999999999</v>
       </c>
-      <c r="I7" s="56">
+      <c r="I7" s="49">
         <v>137.5</v>
       </c>
-      <c r="L7" s="61">
+      <c r="L7" s="54">
         <v>5</v>
       </c>
-      <c r="M7" s="65">
+      <c r="M7" s="58">
         <v>78</v>
       </c>
-      <c r="N7" s="65">
+      <c r="N7" s="58">
         <v>-2767</v>
       </c>
-      <c r="O7" s="65">
+      <c r="O7" s="58">
         <v>-35.474359</v>
       </c>
-      <c r="P7" s="65">
+      <c r="P7" s="58">
         <v>-2767</v>
       </c>
-      <c r="Q7" s="65">
+      <c r="Q7" s="58">
         <v>-35.474359</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="57">
+      <c r="A8" s="50">
         <v>43465</v>
       </c>
-      <c r="B8" s="58">
+      <c r="B8" s="51">
         <v>236</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="51">
         <v>18.894068000000001</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="51">
         <v>4459</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="51">
         <v>933</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="51">
         <v>-245</v>
       </c>
-      <c r="G8" s="58">
+      <c r="G8" s="51">
         <v>170.528819</v>
       </c>
-      <c r="H8" s="58">
+      <c r="H8" s="51">
         <v>16.936440999999999</v>
       </c>
-      <c r="I8" s="58">
+      <c r="I8" s="51">
         <v>221.272358</v>
       </c>
-      <c r="L8" s="68">
+      <c r="L8" s="60">
         <v>6</v>
       </c>
-      <c r="M8" s="63">
+      <c r="M8" s="56">
         <v>92</v>
       </c>
-      <c r="N8" s="63">
+      <c r="N8" s="56">
         <v>-3108</v>
       </c>
-      <c r="O8" s="63">
+      <c r="O8" s="56">
         <v>-33.782609000000001</v>
       </c>
-      <c r="P8" s="63">
+      <c r="P8" s="56">
         <v>-3108</v>
       </c>
-      <c r="Q8" s="63">
+      <c r="Q8" s="56">
         <v>-33.782609000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="55">
+      <c r="A9" s="48">
         <v>43830</v>
       </c>
-      <c r="B9" s="56">
+      <c r="B9" s="49">
         <v>56</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="49">
         <v>16.142856999999999</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="49">
         <v>904</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="49">
         <v>374</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="49">
         <v>-159</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="49">
         <v>118.554081</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="49">
         <v>11.089286</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="49">
         <v>184.533333</v>
       </c>
-      <c r="L9" s="61">
+      <c r="L9" s="54">
         <v>7</v>
       </c>
-      <c r="M9" s="65">
+      <c r="M9" s="58">
         <v>262</v>
       </c>
-      <c r="N9" s="65">
+      <c r="N9" s="58">
         <v>-22768</v>
       </c>
-      <c r="O9" s="65">
+      <c r="O9" s="58">
         <v>-86.900762999999998</v>
       </c>
-      <c r="P9" s="65">
+      <c r="P9" s="58">
         <v>-23540</v>
       </c>
-      <c r="Q9" s="65">
+      <c r="Q9" s="58">
         <v>-89.847328000000005</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="L10" s="68">
+      <c r="L10" s="60">
         <v>8</v>
       </c>
-      <c r="M10" s="63">
+      <c r="M10" s="56">
         <v>290</v>
       </c>
-      <c r="N10" s="63">
+      <c r="N10" s="56">
         <v>-24108</v>
       </c>
-      <c r="O10" s="63">
+      <c r="O10" s="56">
         <v>-83.131034</v>
       </c>
-      <c r="P10" s="63">
+      <c r="P10" s="56">
         <v>-26926</v>
       </c>
-      <c r="Q10" s="63">
+      <c r="Q10" s="56">
         <v>-92.848275999999998</v>
       </c>
     </row>
@@ -4691,12 +5367,20 @@
         <f>SUM(D4:D10)</f>
         <v>5802</v>
       </c>
-      <c r="L11" s="67"/>
+      <c r="L11" s="59"/>
     </row>
     <row r="12" spans="1:17">
+      <c r="M12">
+        <f>SUM(M5:M10)</f>
+        <v>1193</v>
+      </c>
       <c r="N12">
         <f>SUM(N5:N11)</f>
         <v>5802</v>
+      </c>
+      <c r="P12">
+        <f>N12/M12</f>
+        <v>4.8633696563285831</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4708,13 +5392,13 @@
       <c r="D16" s="66"/>
       <c r="E16" s="66"/>
       <c r="F16" s="66"/>
-      <c r="G16" s="60" t="s">
+      <c r="G16" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="60" t="s">
+      <c r="H16" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="L16" s="60" t="s">
+      <c r="L16" s="53" t="s">
         <v>20</v>
       </c>
       <c r="M16" s="66" t="s">
@@ -4727,381 +5411,389 @@
       <c r="P16" s="66"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="60" t="s">
+      <c r="H17" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="60" t="s">
+      <c r="I17" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60" t="s">
+      <c r="L17" s="53"/>
+      <c r="M17" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="N17" s="60" t="s">
+      <c r="N17" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="O17" s="60" t="s">
+      <c r="O17" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="P17" s="60" t="s">
+      <c r="P17" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="Q17" s="60" t="s">
+      <c r="Q17" s="53" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="L18" s="61" t="s">
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="L18" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="62">
+      <c r="A19" s="55">
         <v>42004</v>
       </c>
-      <c r="B19" s="63">
+      <c r="B19" s="56">
         <v>223</v>
       </c>
-      <c r="C19" s="63">
+      <c r="C19" s="56">
         <v>1.807175</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="56">
         <v>403</v>
       </c>
-      <c r="E19" s="63">
+      <c r="E19" s="56">
         <v>384</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="56">
         <v>-156</v>
       </c>
-      <c r="G19" s="63">
+      <c r="G19" s="56">
         <v>100.528944</v>
       </c>
-      <c r="H19" s="63">
+      <c r="H19" s="56">
         <v>-3.5829599999999999</v>
       </c>
-      <c r="I19" s="63">
+      <c r="I19" s="56">
         <v>142.340081</v>
       </c>
-      <c r="L19" s="68">
+      <c r="L19" s="60">
         <v>0</v>
       </c>
-      <c r="M19" s="63">
+      <c r="M19" s="56">
         <v>98</v>
       </c>
-      <c r="N19" s="63" t="s">
+      <c r="N19" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="63" t="s">
+      <c r="O19" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="P19" s="63" t="s">
+      <c r="P19" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="Q19" s="63" t="s">
+      <c r="Q19" s="56" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="64">
+      <c r="A20" s="57">
         <v>42369</v>
       </c>
-      <c r="B20" s="65">
+      <c r="B20" s="58">
         <v>231</v>
       </c>
-      <c r="C20" s="65">
+      <c r="C20" s="58">
         <v>3.8722940000000001</v>
       </c>
-      <c r="D20" s="65">
+      <c r="D20" s="58">
         <v>894.5</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="58">
         <v>555</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F20" s="58">
         <v>-222</v>
       </c>
-      <c r="G20" s="65">
+      <c r="G20" s="58">
         <v>139.308751</v>
       </c>
-      <c r="H20" s="65">
+      <c r="H20" s="58">
         <v>-2.606061</v>
       </c>
-      <c r="I20" s="65">
+      <c r="I20" s="58">
         <v>195.352227</v>
       </c>
-      <c r="L20" s="61">
+      <c r="L20" s="54">
         <v>3</v>
       </c>
-      <c r="M20" s="65">
+      <c r="M20" s="58">
         <v>240</v>
       </c>
-      <c r="N20" s="65">
+      <c r="N20" s="58">
         <v>27782</v>
       </c>
-      <c r="O20" s="65">
+      <c r="O20" s="58">
         <v>115.75833299999999</v>
       </c>
-      <c r="P20" s="65">
+      <c r="P20" s="58">
         <v>27782</v>
       </c>
-      <c r="Q20" s="65">
+      <c r="Q20" s="58">
         <v>115.75833299999999</v>
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="62">
+      <c r="A21" s="55">
         <v>42735</v>
       </c>
-      <c r="B21" s="63">
+      <c r="B21" s="56">
         <v>230</v>
       </c>
-      <c r="C21" s="63">
+      <c r="C21" s="56">
         <v>-1.7065220000000001</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21" s="56">
         <v>-392.5</v>
       </c>
-      <c r="E21" s="63">
+      <c r="E21" s="56">
         <v>374</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="56">
         <v>-140.5</v>
       </c>
-      <c r="G21" s="63">
+      <c r="G21" s="56">
         <v>95.537469000000002</v>
       </c>
-      <c r="H21" s="63">
+      <c r="H21" s="56">
         <v>-4.0217390000000002</v>
       </c>
-      <c r="I21" s="63">
+      <c r="I21" s="56">
         <v>157.16734700000001</v>
       </c>
-      <c r="L21" s="68">
+      <c r="L21" s="60">
         <v>4</v>
       </c>
-      <c r="M21" s="63">
+      <c r="M21" s="56">
         <v>219</v>
       </c>
-      <c r="N21" s="63">
+      <c r="N21" s="56">
         <v>29883</v>
       </c>
-      <c r="O21" s="63">
+      <c r="O21" s="56">
         <v>136.452055</v>
       </c>
-      <c r="P21" s="63">
+      <c r="P21" s="56">
         <v>29883</v>
       </c>
-      <c r="Q21" s="63">
+      <c r="Q21" s="56">
         <v>136.452055</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="64">
+      <c r="A22" s="57">
         <v>43100</v>
       </c>
-      <c r="B22" s="65">
+      <c r="B22" s="58">
         <v>217</v>
       </c>
-      <c r="C22" s="65">
+      <c r="C22" s="58">
         <v>3.6428569999999998</v>
       </c>
-      <c r="D22" s="65">
+      <c r="D22" s="58">
         <v>790.5</v>
       </c>
-      <c r="E22" s="65">
+      <c r="E22" s="58">
         <v>567</v>
       </c>
-      <c r="F22" s="65">
+      <c r="F22" s="58">
         <v>-188.5</v>
       </c>
-      <c r="G22" s="65">
+      <c r="G22" s="58">
         <v>104.608808</v>
       </c>
-      <c r="H22" s="65">
+      <c r="H22" s="58">
         <v>-0.36866399999999999</v>
       </c>
-      <c r="I22" s="65">
+      <c r="I22" s="58">
         <v>137.5</v>
       </c>
-      <c r="L22" s="61">
+      <c r="L22" s="54">
         <v>5</v>
       </c>
-      <c r="M22" s="65">
+      <c r="M22" s="58">
         <v>71</v>
       </c>
-      <c r="N22" s="65">
+      <c r="N22" s="58">
         <v>-2454</v>
       </c>
-      <c r="O22" s="65">
+      <c r="O22" s="58">
         <v>-34.563380000000002</v>
       </c>
-      <c r="P22" s="65">
+      <c r="P22" s="58">
         <v>-2454</v>
       </c>
-      <c r="Q22" s="65">
+      <c r="Q22" s="58">
         <v>-34.563380000000002</v>
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="62">
+      <c r="A23" s="55">
         <v>43465</v>
       </c>
-      <c r="B23" s="63">
+      <c r="B23" s="56">
         <v>236</v>
       </c>
-      <c r="C23" s="63">
+      <c r="C23" s="56">
         <v>17.516949</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="56">
         <v>4134</v>
       </c>
-      <c r="E23" s="63">
+      <c r="E23" s="56">
         <v>933</v>
       </c>
-      <c r="F23" s="63">
+      <c r="F23" s="56">
         <v>-222</v>
       </c>
-      <c r="G23" s="63">
+      <c r="G23" s="56">
         <v>169.12004300000001</v>
       </c>
-      <c r="H23" s="63">
+      <c r="H23" s="56">
         <v>16.936440999999999</v>
       </c>
-      <c r="I23" s="63">
+      <c r="I23" s="56">
         <v>221.272358</v>
       </c>
-      <c r="L23" s="68">
+      <c r="L23" s="60">
         <v>6</v>
       </c>
-      <c r="M23" s="63">
+      <c r="M23" s="56">
         <v>78</v>
       </c>
-      <c r="N23" s="63">
+      <c r="N23" s="56">
         <v>-2570</v>
       </c>
-      <c r="O23" s="63">
+      <c r="O23" s="56">
         <v>-32.948718</v>
       </c>
-      <c r="P23" s="63">
+      <c r="P23" s="56">
         <v>-2570</v>
       </c>
-      <c r="Q23" s="63">
+      <c r="Q23" s="56">
         <v>-32.948718</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="64">
+      <c r="A24" s="57">
         <v>43830</v>
       </c>
-      <c r="B24" s="65">
+      <c r="B24" s="58">
         <v>56</v>
       </c>
-      <c r="C24" s="65">
+      <c r="C24" s="58">
         <v>15.232143000000001</v>
       </c>
-      <c r="D24" s="65">
+      <c r="D24" s="58">
         <v>853</v>
       </c>
-      <c r="E24" s="65">
+      <c r="E24" s="58">
         <v>374</v>
       </c>
-      <c r="F24" s="65">
+      <c r="F24" s="58">
         <v>-146</v>
       </c>
-      <c r="G24" s="65">
+      <c r="G24" s="58">
         <v>117.105429</v>
       </c>
-      <c r="H24" s="65">
+      <c r="H24" s="58">
         <v>11.089286</v>
       </c>
-      <c r="I24" s="65">
+      <c r="I24" s="58">
         <v>184.533333</v>
       </c>
-      <c r="L24" s="61">
+      <c r="L24" s="54">
         <v>7</v>
       </c>
-      <c r="M24" s="65">
+      <c r="M24" s="58">
         <v>276</v>
       </c>
-      <c r="N24" s="65">
+      <c r="N24" s="58">
         <v>-22034.5</v>
       </c>
-      <c r="O24" s="65">
+      <c r="O24" s="58">
         <v>-79.835144999999997</v>
       </c>
-      <c r="P24" s="65">
+      <c r="P24" s="58">
         <v>-23372</v>
       </c>
-      <c r="Q24" s="65">
+      <c r="Q24" s="58">
         <v>-84.681158999999994</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15">
-      <c r="A25" s="67"/>
+      <c r="A25" s="59"/>
       <c r="D25">
         <f>SUM(D19:D24)</f>
         <v>6682.5</v>
       </c>
-      <c r="L25" s="68">
+      <c r="L25" s="60">
         <v>8</v>
       </c>
-      <c r="M25" s="63">
+      <c r="M25" s="56">
         <v>309</v>
       </c>
-      <c r="N25" s="63">
+      <c r="N25" s="56">
         <v>-23924</v>
       </c>
-      <c r="O25" s="63">
+      <c r="O25" s="56">
         <v>-77.423947999999996</v>
       </c>
-      <c r="P25" s="63">
+      <c r="P25" s="56">
         <v>-27057</v>
       </c>
-      <c r="Q25" s="63">
+      <c r="Q25" s="56">
         <v>-87.563107000000002</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="15">
-      <c r="L26" s="67"/>
+      <c r="L26" s="59"/>
+      <c r="M26">
+        <f>SUM(M20:M25)</f>
+        <v>1193</v>
+      </c>
       <c r="N26">
         <f>SUM(N20:N25)</f>
         <v>6682.5</v>
+      </c>
+      <c r="P26">
+        <f>N26/M26</f>
+        <v>5.6014249790444257</v>
       </c>
     </row>
   </sheetData>
@@ -5140,14 +5832,14 @@
       <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="46"/>
+      <c r="F1" s="62"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:12">
@@ -5189,7 +5881,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A4" s="50">
+      <c r="A4" s="67">
         <v>2014</v>
       </c>
       <c r="B4" s="5">
@@ -5220,7 +5912,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="51"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -5261,7 +5953,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="51"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -5282,7 +5974,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="51"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -5315,7 +6007,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="51"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -5336,7 +6028,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="51"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -5369,7 +6061,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="51"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="8">
         <v>8</v>
       </c>
@@ -5402,7 +6094,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A11" s="50">
+      <c r="A11" s="67">
         <v>2015</v>
       </c>
       <c r="B11" s="5">
@@ -5433,7 +6125,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="52"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="8">
         <v>3</v>
       </c>
@@ -5474,7 +6166,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="52"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="4">
         <v>4</v>
       </c>
@@ -5495,7 +6187,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="52"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="8">
         <v>5</v>
       </c>
@@ -5528,7 +6220,7 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="52"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="4">
         <v>6</v>
       </c>
@@ -5549,7 +6241,7 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="52"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="8">
         <v>7</v>
       </c>
@@ -5582,7 +6274,7 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="52"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="4">
         <v>8</v>
       </c>
@@ -5615,7 +6307,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A18" s="50">
+      <c r="A18" s="67">
         <v>2016</v>
       </c>
       <c r="B18" s="5">
@@ -5646,7 +6338,7 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="51"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="4">
         <v>3</v>
       </c>
@@ -5687,7 +6379,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="51"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="8">
         <v>4</v>
       </c>
@@ -5708,7 +6400,7 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="51"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="4">
         <v>5</v>
       </c>
@@ -5741,7 +6433,7 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="51"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="8">
         <v>6</v>
       </c>
@@ -5762,7 +6454,7 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="51"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="4">
         <v>7</v>
       </c>
@@ -5795,7 +6487,7 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="51"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="8">
         <v>8</v>
       </c>
@@ -5828,7 +6520,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A25" s="50">
+      <c r="A25" s="67">
         <v>2017</v>
       </c>
       <c r="B25" s="5">
@@ -5859,7 +6551,7 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="52"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="8">
         <v>3</v>
       </c>
@@ -5900,7 +6592,7 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="52"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="4">
         <v>4</v>
       </c>
@@ -5921,7 +6613,7 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="52"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="8">
         <v>5</v>
       </c>
@@ -5954,7 +6646,7 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="52"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="4">
         <v>6</v>
       </c>
@@ -5975,7 +6667,7 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="52"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="8">
         <v>7</v>
       </c>
@@ -6008,7 +6700,7 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="52"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="4">
         <v>8</v>
       </c>
@@ -6041,7 +6733,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" s="1" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A32" s="50">
+      <c r="A32" s="67">
         <v>2018</v>
       </c>
       <c r="B32" s="5">
@@ -6072,7 +6764,7 @@
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="51"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="4">
         <v>3</v>
       </c>
@@ -6113,7 +6805,7 @@
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="51"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="8">
         <v>4</v>
       </c>
@@ -6134,7 +6826,7 @@
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="51"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="4">
         <v>5</v>
       </c>
@@ -6167,7 +6859,7 @@
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="51"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="8">
         <v>6</v>
       </c>
@@ -6188,7 +6880,7 @@
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="51"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="4">
         <v>7</v>
       </c>
@@ -6221,7 +6913,7 @@
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="51"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="8">
         <v>8</v>
       </c>
@@ -6254,7 +6946,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A39" s="50">
+      <c r="A39" s="67">
         <v>2019</v>
       </c>
       <c r="B39" s="5">
@@ -6285,7 +6977,7 @@
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="52"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="8">
         <v>3</v>
       </c>
@@ -6326,7 +7018,7 @@
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="52"/>
+      <c r="A41" s="68"/>
       <c r="B41" s="4">
         <v>4</v>
       </c>
@@ -6347,7 +7039,7 @@
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="52"/>
+      <c r="A42" s="68"/>
       <c r="B42" s="8">
         <v>5</v>
       </c>
@@ -6380,7 +7072,7 @@
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="52"/>
+      <c r="A43" s="68"/>
       <c r="B43" s="4">
         <v>6</v>
       </c>
@@ -6401,7 +7093,7 @@
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="52"/>
+      <c r="A44" s="68"/>
       <c r="B44" s="8">
         <v>7</v>
       </c>
@@ -6434,7 +7126,7 @@
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="52"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="4">
         <v>8</v>
       </c>

--- a/HighLow.xlsx
+++ b/HighLow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12495" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12495" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Year" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="40">
   <si>
     <t>stop</t>
   </si>
@@ -113,6 +113,45 @@
     <t>开仓止损</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Pre0</t>
+  </si>
+  <si>
+    <t>Pre1</t>
+  </si>
+  <si>
+    <t>ALL_Profit</t>
+  </si>
+  <si>
+    <t>All_CNT</t>
+  </si>
+  <si>
+    <t>All_Mean</t>
+  </si>
+  <si>
+    <t>Lose_CNT</t>
+  </si>
+  <si>
+    <t>Lose_Mean</t>
+  </si>
+  <si>
+    <t>ROI</t>
+  </si>
+  <si>
+    <t>W%</t>
+  </si>
+  <si>
+    <t>W/L</t>
+  </si>
+  <si>
+    <t>Win_CNT</t>
+  </si>
+  <si>
+    <t>Win_Mean</t>
+  </si>
 </sst>
 </file>
 
@@ -121,7 +160,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +289,51 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -342,7 +426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -517,6 +601,39 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="8" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -541,47 +658,44 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="8" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="3">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -895,41 +1009,41 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="J2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61" t="s">
+      <c r="K2" s="71"/>
+      <c r="L2" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="61"/>
-      <c r="N2" s="58" t="s">
+      <c r="M2" s="72"/>
+      <c r="N2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="61" t="s">
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="61"/>
-      <c r="S2" s="58" t="s">
+      <c r="R2" s="72"/>
+      <c r="S2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="58"/>
+      <c r="T2" s="69"/>
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
       <c r="X2" s="16"/>
@@ -1501,41 +1615,41 @@
       <c r="X16" s="37"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="60" t="s">
+      <c r="J17" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="60"/>
-      <c r="L17" s="61" t="s">
+      <c r="K17" s="71"/>
+      <c r="L17" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="M17" s="61"/>
-      <c r="N17" s="58" t="s">
+      <c r="M17" s="72"/>
+      <c r="N17" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="61" t="s">
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="R17" s="61"/>
-      <c r="S17" s="58" t="s">
+      <c r="R17" s="72"/>
+      <c r="S17" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="T17" s="58"/>
+      <c r="T17" s="69"/>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="3"/>
@@ -2099,12 +2213,12 @@
       <c r="A1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
@@ -2141,7 +2255,7 @@
       <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64">
+      <c r="A4" s="75">
         <v>0</v>
       </c>
       <c r="B4" s="55">
@@ -2164,7 +2278,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="39">
         <v>1</v>
       </c>
@@ -2184,50 +2298,50 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="67" customFormat="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="66">
+    <row r="6" spans="1:7" s="61" customFormat="1">
+      <c r="A6" s="75"/>
+      <c r="B6" s="60">
         <v>2</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="60">
         <v>203</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="60">
         <v>1998</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="60">
         <v>10.684492000000001</v>
       </c>
-      <c r="F6" s="66">
+      <c r="F6" s="60">
         <v>406</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="60">
         <v>-119</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="67" customFormat="1">
-      <c r="A7" s="64"/>
-      <c r="B7" s="66">
+    <row r="7" spans="1:7" s="61" customFormat="1">
+      <c r="A7" s="75"/>
+      <c r="B7" s="60">
         <v>3</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="60">
         <v>138</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D7" s="60">
         <v>1236</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="60">
         <v>9.65625</v>
       </c>
-      <c r="F7" s="66">
+      <c r="F7" s="60">
         <v>712</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="60">
         <v>-128</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="54">
         <v>4</v>
       </c>
@@ -2248,7 +2362,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="64"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="39">
         <v>5</v>
       </c>
@@ -2269,7 +2383,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="64"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="54">
         <v>6</v>
       </c>
@@ -2290,7 +2404,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="64"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="39">
         <v>7</v>
       </c>
@@ -2311,7 +2425,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="64"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="54">
         <v>8</v>
       </c>
@@ -2332,7 +2446,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="64"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="39">
         <v>9</v>
       </c>
@@ -2353,7 +2467,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="64"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="54">
         <v>10</v>
       </c>
@@ -2374,7 +2488,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="64"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="39">
         <v>11</v>
       </c>
@@ -2395,7 +2509,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="64"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="54">
         <v>13</v>
       </c>
@@ -2416,7 +2530,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="64"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="39">
         <v>14</v>
       </c>
@@ -2437,7 +2551,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="64">
+      <c r="A18" s="75">
         <v>1</v>
       </c>
       <c r="B18" s="55">
@@ -2460,7 +2574,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="64"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="39">
         <v>2</v>
       </c>
@@ -2480,50 +2594,50 @@
         <v>-106</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="69" customFormat="1">
-      <c r="A20" s="64"/>
-      <c r="B20" s="68">
+    <row r="20" spans="1:7" s="63" customFormat="1">
+      <c r="A20" s="75"/>
+      <c r="B20" s="62">
         <v>3</v>
       </c>
-      <c r="C20" s="68">
+      <c r="C20" s="62">
         <v>159</v>
       </c>
-      <c r="D20" s="68">
+      <c r="D20" s="62">
         <v>1207</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="62">
         <v>8.1006710000000002</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="62">
         <v>541</v>
       </c>
-      <c r="G20" s="68">
+      <c r="G20" s="62">
         <v>-135</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="69" customFormat="1">
-      <c r="A21" s="64"/>
-      <c r="B21" s="68">
+    <row r="21" spans="1:7" s="63" customFormat="1">
+      <c r="A21" s="75"/>
+      <c r="B21" s="62">
         <v>4</v>
       </c>
-      <c r="C21" s="68">
+      <c r="C21" s="62">
         <v>103</v>
       </c>
-      <c r="D21" s="68">
+      <c r="D21" s="62">
         <v>2194</v>
       </c>
-      <c r="E21" s="68">
+      <c r="E21" s="62">
         <v>23.340426000000001</v>
       </c>
-      <c r="F21" s="68">
+      <c r="F21" s="62">
         <v>933</v>
       </c>
-      <c r="G21" s="68">
+      <c r="G21" s="62">
         <v>-140</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="64"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="54">
         <v>5</v>
       </c>
@@ -2544,7 +2658,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="64"/>
+      <c r="A23" s="75"/>
       <c r="B23" s="39">
         <v>6</v>
       </c>
@@ -2565,7 +2679,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="64"/>
+      <c r="A24" s="75"/>
       <c r="B24" s="54">
         <v>7</v>
       </c>
@@ -2586,7 +2700,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="64"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="39">
         <v>8</v>
       </c>
@@ -2607,7 +2721,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="64"/>
+      <c r="A26" s="75"/>
       <c r="B26" s="54">
         <v>9</v>
       </c>
@@ -2628,7 +2742,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="64"/>
+      <c r="A27" s="75"/>
       <c r="B27" s="39">
         <v>10</v>
       </c>
@@ -2649,7 +2763,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="64"/>
+      <c r="A28" s="75"/>
       <c r="B28" s="54">
         <v>14</v>
       </c>
@@ -2670,7 +2784,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="64"/>
+      <c r="A29" s="75"/>
       <c r="B29" s="39">
         <v>15</v>
       </c>
@@ -2691,7 +2805,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="64"/>
+      <c r="A30" s="75"/>
       <c r="B30" s="54">
         <v>23</v>
       </c>
@@ -2712,7 +2826,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="64"/>
+      <c r="A31" s="75"/>
       <c r="B31" s="39">
         <v>25</v>
       </c>
@@ -2752,52 +2866,196 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="70"/>
-      <c r="B1" s="71"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="72"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="70"/>
-      <c r="B6" s="71"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="70"/>
-      <c r="B7" s="72"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="70"/>
-      <c r="B8" s="72"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="70"/>
+    <row r="1" spans="1:4">
+      <c r="B1" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="41">
+        <v>8877.5</v>
+      </c>
+      <c r="C2" s="41">
+        <v>2131.5</v>
+      </c>
+      <c r="D2" s="41">
+        <v>6746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="41">
+        <v>1883</v>
+      </c>
+      <c r="C3" s="41">
+        <v>940</v>
+      </c>
+      <c r="D3" s="41">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="43">
+        <v>4.7145510000000002</v>
+      </c>
+      <c r="C4" s="43">
+        <v>2.2675529999999999</v>
+      </c>
+      <c r="D4" s="43">
+        <v>7.1537649999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="41">
+        <v>-54475</v>
+      </c>
+      <c r="C5" s="41">
+        <v>-28279</v>
+      </c>
+      <c r="D5" s="41">
+        <v>-26196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="43">
+        <v>1146</v>
+      </c>
+      <c r="C6" s="43">
+        <v>591</v>
+      </c>
+      <c r="D6" s="43">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="41">
+        <v>-47.534903999999997</v>
+      </c>
+      <c r="C7" s="41">
+        <v>-47.849407999999997</v>
+      </c>
+      <c r="D7" s="41">
+        <v>-47.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="43">
+        <v>0.74080599999999996</v>
+      </c>
+      <c r="C8" s="43">
+        <v>0.62593699999999997</v>
+      </c>
+      <c r="D8" s="43">
+        <v>0.87460000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="41">
+        <v>0.63699799999999995</v>
+      </c>
+      <c r="C9" s="41">
+        <v>0.58206400000000003</v>
+      </c>
+      <c r="D9" s="41">
+        <v>0.69549499999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="43">
+        <v>1.162965</v>
+      </c>
+      <c r="C10" s="43">
+        <v>1.0753740000000001</v>
+      </c>
+      <c r="D10" s="43">
+        <v>1.25752</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="41">
+        <v>63352.5</v>
+      </c>
+      <c r="C11" s="41">
+        <v>30410.5</v>
+      </c>
+      <c r="D11" s="41">
+        <v>32942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="43">
+        <v>730</v>
+      </c>
+      <c r="C12" s="43">
+        <v>344</v>
+      </c>
+      <c r="D12" s="43">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="41">
+        <v>86.784246999999993</v>
+      </c>
+      <c r="C13" s="41">
+        <v>88.402615999999995</v>
+      </c>
+      <c r="D13" s="41">
+        <v>85.341969000000006</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -2821,25 +3079,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59" t="s">
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="59"/>
+      <c r="M1" s="70"/>
       <c r="O1" s="3" t="s">
         <v>5</v>
       </c>
@@ -3350,25 +3608,25 @@
   <sheetData>
     <row r="1" spans="1:18" ht="14.1" customHeight="1">
       <c r="A1" s="3"/>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59" t="s">
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="59"/>
+      <c r="N1" s="70"/>
       <c r="O1" s="3" t="s">
         <v>5</v>
       </c>
@@ -4047,25 +4305,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59" t="s">
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="59"/>
+      <c r="M1" s="70"/>
       <c r="O1" s="3" t="s">
         <v>5</v>
       </c>
@@ -4593,25 +4851,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59" t="s">
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="59"/>
+      <c r="M1" s="70"/>
       <c r="P1" s="3" t="s">
         <v>5</v>
       </c>
@@ -5138,14 +5396,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
       <c r="G1" s="38" t="s">
         <v>3</v>
       </c>
@@ -5156,14 +5414,14 @@
       <c r="L1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63" t="s">
+      <c r="N1" s="74"/>
+      <c r="O1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="63"/>
+      <c r="P1" s="74"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="38"/>
@@ -5553,14 +5811,14 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="44" t="s">
         <v>3</v>
       </c>
@@ -5570,14 +5828,14 @@
       <c r="L16" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="63" t="s">
+      <c r="M16" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63" t="s">
+      <c r="N16" s="74"/>
+      <c r="O16" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="P16" s="63"/>
+      <c r="P16" s="74"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="44"/>
@@ -5983,24 +6241,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:D34"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="57" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.75" style="57" customWidth="1"/>
     <col min="9" max="9" width="4.125" style="57" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.75" style="57" customWidth="1"/>
     <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="68" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6009,12 +6271,12 @@
       <c r="B2" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -6059,7 +6321,7 @@
       <c r="J4" s="39"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="64">
+      <c r="A5" s="75">
         <v>0</v>
       </c>
       <c r="B5" s="55">
@@ -6083,7 +6345,7 @@
       <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="64"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="39">
         <v>3</v>
       </c>
@@ -6107,7 +6369,7 @@
       <c r="J6" s="41"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="64"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="54">
         <v>4</v>
       </c>
@@ -6131,7 +6393,7 @@
       <c r="J7" s="43"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="64"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="39">
         <v>5</v>
       </c>
@@ -6155,7 +6417,7 @@
       <c r="J8" s="41"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="64"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="54">
         <v>6</v>
       </c>
@@ -6179,7 +6441,7 @@
       <c r="J9" s="43"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="64"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="39">
         <v>7</v>
       </c>
@@ -6220,7 +6482,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="64"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="54">
         <v>8</v>
       </c>
@@ -6247,7 +6509,7 @@
         <f>C11+C9</f>
         <v>276</v>
       </c>
-      <c r="J11" s="73">
+      <c r="J11" s="64">
         <f>H11/I11</f>
         <v>-72.778985507246375</v>
       </c>
@@ -6261,7 +6523,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="65">
+      <c r="A12" s="76">
         <v>1</v>
       </c>
       <c r="B12" s="56">
@@ -6285,7 +6547,7 @@
       <c r="J12" s="41"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="65"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="54">
         <v>3</v>
       </c>
@@ -6309,7 +6571,7 @@
       <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="65"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="39">
         <v>4</v>
       </c>
@@ -6333,7 +6595,7 @@
       <c r="J14" s="41"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="65"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="54">
         <v>5</v>
       </c>
@@ -6357,7 +6619,7 @@
       <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="65"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="39">
         <v>6</v>
       </c>
@@ -6381,7 +6643,7 @@
       <c r="J16" s="41"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="65"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="54">
         <v>7</v>
       </c>
@@ -6422,7 +6684,7 @@
       </c>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="65"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="39">
         <v>8</v>
       </c>
@@ -6449,7 +6711,7 @@
         <f>C18+C16</f>
         <v>106</v>
       </c>
-      <c r="J18" s="73">
+      <c r="J18" s="64">
         <f>H18/I18</f>
         <v>-67.254716981132077</v>
       </c>
@@ -6477,7 +6739,7 @@
       </c>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="68" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6485,12 +6747,12 @@
       <c r="A23" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23" s="1"/>
@@ -6499,12 +6761,12 @@
       <c r="O23" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="P23" s="62" t="s">
+      <c r="P23" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
@@ -6575,10 +6837,10 @@
       <c r="U25" s="39"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="76">
+      <c r="A26" s="77">
         <v>0</v>
       </c>
-      <c r="B26" s="74">
+      <c r="B26" s="65">
         <v>0</v>
       </c>
       <c r="C26" s="47"/>
@@ -6597,7 +6859,7 @@
       <c r="H26" s="43"/>
       <c r="I26" s="43"/>
       <c r="J26"/>
-      <c r="O26" s="64">
+      <c r="O26" s="75">
         <v>0</v>
       </c>
       <c r="P26" s="55">
@@ -6618,7 +6880,7 @@
       </c>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="76"/>
+      <c r="A27" s="77"/>
       <c r="B27" s="45">
         <v>3</v>
       </c>
@@ -6649,7 +6911,7 @@
         <f>H27/I27</f>
         <v>88.589285714285708</v>
       </c>
-      <c r="O27" s="64"/>
+      <c r="O27" s="75"/>
       <c r="P27" s="39">
         <v>3</v>
       </c>
@@ -6682,7 +6944,7 @@
       </c>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="76"/>
+      <c r="A28" s="77"/>
       <c r="B28" s="51">
         <v>4</v>
       </c>
@@ -6713,7 +6975,7 @@
         <f>H28/I28</f>
         <v>99.79190751445087</v>
       </c>
-      <c r="O28" s="64"/>
+      <c r="O28" s="75"/>
       <c r="P28" s="54">
         <v>4</v>
       </c>
@@ -6746,7 +7008,7 @@
       </c>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="76"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="45">
         <v>5</v>
       </c>
@@ -6768,7 +7030,7 @@
       <c r="H29" s="41"/>
       <c r="I29" s="41"/>
       <c r="J29"/>
-      <c r="O29" s="64"/>
+      <c r="O29" s="75"/>
       <c r="P29" s="39">
         <v>5</v>
       </c>
@@ -6792,7 +7054,7 @@
       <c r="X29"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="76"/>
+      <c r="A30" s="77"/>
       <c r="B30" s="51">
         <v>6</v>
       </c>
@@ -6814,7 +7076,7 @@
       <c r="H30" s="43"/>
       <c r="I30" s="43"/>
       <c r="J30"/>
-      <c r="O30" s="64"/>
+      <c r="O30" s="75"/>
       <c r="P30" s="54">
         <v>6</v>
       </c>
@@ -6838,7 +7100,7 @@
       <c r="X30"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="76"/>
+      <c r="A31" s="77"/>
       <c r="B31" s="45">
         <v>7</v>
       </c>
@@ -6858,7 +7120,7 @@
         <v>2</v>
       </c>
       <c r="L31" s="14"/>
-      <c r="O31" s="64"/>
+      <c r="O31" s="75"/>
       <c r="P31" s="39">
         <v>7</v>
       </c>
@@ -6883,7 +7145,7 @@
       <c r="Z31" s="14"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="76"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="51">
         <v>8</v>
       </c>
@@ -6903,7 +7165,7 @@
         <v>-197</v>
       </c>
       <c r="L32" s="14"/>
-      <c r="O32" s="64"/>
+      <c r="O32" s="75"/>
       <c r="P32" s="54">
         <v>8</v>
       </c>
@@ -6928,7 +7190,7 @@
       <c r="Z32" s="14"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="76"/>
+      <c r="A33" s="77"/>
       <c r="B33" s="45">
         <v>9</v>
       </c>
@@ -6959,15 +7221,15 @@
         <f>H33/I33</f>
         <v>-50.547368421052632</v>
       </c>
-      <c r="K33" s="69">
+      <c r="K33" s="63">
         <f>I27/I33</f>
         <v>0.58947368421052626</v>
       </c>
-      <c r="L33" s="78">
+      <c r="L33" s="67">
         <f>-J27/J33</f>
         <v>1.7525993633605044</v>
       </c>
-      <c r="O33" s="64"/>
+      <c r="O33" s="75"/>
       <c r="P33" s="39">
         <v>9</v>
       </c>
@@ -6998,17 +7260,17 @@
         <f>V33/W33</f>
         <v>-47.547872340425535</v>
       </c>
-      <c r="Y33" s="69">
+      <c r="Y33" s="63">
         <f>W27/W33</f>
         <v>0.6063829787234043</v>
       </c>
-      <c r="Z33" s="78">
+      <c r="Z33" s="67">
         <f>-X27/X33</f>
         <v>1.5360327207996498</v>
       </c>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="76"/>
+      <c r="A34" s="77"/>
       <c r="B34" s="51">
         <v>10</v>
       </c>
@@ -7035,19 +7297,19 @@
         <f>C34+C30</f>
         <v>264</v>
       </c>
-      <c r="J34" s="73">
+      <c r="J34" s="64">
         <f>H34/I34</f>
         <v>-56.549242424242422</v>
       </c>
-      <c r="K34" s="69">
+      <c r="K34" s="63">
         <f>I28/I34</f>
         <v>0.65530303030303028</v>
       </c>
-      <c r="L34" s="78">
+      <c r="L34" s="67">
         <f>-J28/J34</f>
         <v>1.7646904403386048</v>
       </c>
-      <c r="O34" s="64"/>
+      <c r="O34" s="75"/>
       <c r="P34" s="54">
         <v>10</v>
       </c>
@@ -7074,24 +7336,24 @@
         <f>Q34+Q30</f>
         <v>267</v>
       </c>
-      <c r="X34" s="73">
+      <c r="X34" s="64">
         <f>V34/W34</f>
         <v>-53</v>
       </c>
-      <c r="Y34" s="69">
+      <c r="Y34" s="63">
         <f>W28/W34</f>
         <v>0.63670411985018727</v>
       </c>
-      <c r="Z34" s="78">
+      <c r="Z34" s="67">
         <f>-X28/X34</f>
         <v>1.7715316315205327</v>
       </c>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="77">
+      <c r="A35" s="78">
         <v>1</v>
       </c>
-      <c r="B35" s="75">
+      <c r="B35" s="66">
         <v>0</v>
       </c>
       <c r="C35" s="49"/>
@@ -7110,7 +7372,7 @@
       <c r="H35" s="41"/>
       <c r="I35" s="41"/>
       <c r="J35"/>
-      <c r="O35" s="65">
+      <c r="O35" s="76">
         <v>1</v>
       </c>
       <c r="P35" s="56">
@@ -7134,7 +7396,7 @@
       <c r="X35"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="77"/>
+      <c r="A36" s="78"/>
       <c r="B36" s="51">
         <v>3</v>
       </c>
@@ -7165,7 +7427,7 @@
         <f>H36/I36</f>
         <v>95.165714285714287</v>
       </c>
-      <c r="O36" s="65"/>
+      <c r="O36" s="76"/>
       <c r="P36" s="54">
         <v>3</v>
       </c>
@@ -7198,7 +7460,7 @@
       </c>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="77"/>
+      <c r="A37" s="78"/>
       <c r="B37" s="45">
         <v>4</v>
       </c>
@@ -7229,7 +7491,7 @@
         <f>H37/I37</f>
         <v>87.253968253968253</v>
       </c>
-      <c r="O37" s="65"/>
+      <c r="O37" s="76"/>
       <c r="P37" s="39">
         <v>4</v>
       </c>
@@ -7262,7 +7524,7 @@
       </c>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="77"/>
+      <c r="A38" s="78"/>
       <c r="B38" s="51">
         <v>5</v>
       </c>
@@ -7284,7 +7546,7 @@
       <c r="H38" s="41"/>
       <c r="I38" s="41"/>
       <c r="J38"/>
-      <c r="O38" s="65"/>
+      <c r="O38" s="76"/>
       <c r="P38" s="54">
         <v>5</v>
       </c>
@@ -7308,7 +7570,7 @@
       <c r="X38"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="77"/>
+      <c r="A39" s="78"/>
       <c r="B39" s="45">
         <v>6</v>
       </c>
@@ -7330,7 +7592,7 @@
       <c r="H39" s="43"/>
       <c r="I39" s="43"/>
       <c r="J39"/>
-      <c r="O39" s="65"/>
+      <c r="O39" s="76"/>
       <c r="P39" s="39">
         <v>6</v>
       </c>
@@ -7353,98 +7615,104 @@
       <c r="W39" s="43"/>
       <c r="X39"/>
     </row>
-    <row r="40" spans="1:26">
-      <c r="A40" s="77"/>
-      <c r="B40" s="51">
+    <row r="40" spans="1:26" s="82" customFormat="1">
+      <c r="A40" s="78"/>
+      <c r="B40" s="79">
         <v>7</v>
       </c>
-      <c r="C40" s="47">
+      <c r="C40" s="80">
         <v>96</v>
       </c>
-      <c r="D40" s="47">
+      <c r="D40" s="80">
         <v>7775</v>
       </c>
-      <c r="E40" s="47">
+      <c r="E40" s="80">
         <v>80.989582999999996</v>
       </c>
-      <c r="F40" s="47">
+      <c r="F40" s="80">
         <v>431</v>
       </c>
-      <c r="G40" s="47">
+      <c r="G40" s="80">
         <v>1</v>
       </c>
-      <c r="L40" s="14"/>
-      <c r="O40" s="65"/>
-      <c r="P40" s="54">
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
+      <c r="L40" s="83"/>
+      <c r="O40" s="76"/>
+      <c r="P40" s="84">
         <v>7</v>
       </c>
-      <c r="Q40" s="43">
+      <c r="Q40" s="85">
         <v>110</v>
       </c>
-      <c r="R40" s="43">
+      <c r="R40" s="85">
         <v>9574.5</v>
       </c>
-      <c r="S40" s="43">
+      <c r="S40" s="85">
         <v>87.040908999999999</v>
       </c>
-      <c r="T40" s="43">
+      <c r="T40" s="85">
         <v>442.5</v>
       </c>
-      <c r="U40" s="43">
+      <c r="U40" s="85">
         <v>2</v>
       </c>
-      <c r="V40" s="57"/>
-      <c r="W40" s="57"/>
-      <c r="X40" s="57"/>
-      <c r="Z40" s="14"/>
-    </row>
-    <row r="41" spans="1:26">
-      <c r="A41" s="77"/>
-      <c r="B41" s="45">
+      <c r="V40" s="81"/>
+      <c r="W40" s="81"/>
+      <c r="X40" s="81"/>
+      <c r="Z40" s="83"/>
+    </row>
+    <row r="41" spans="1:26" s="82" customFormat="1">
+      <c r="A41" s="78"/>
+      <c r="B41" s="86">
         <v>8</v>
       </c>
-      <c r="C41" s="49">
+      <c r="C41" s="87">
         <v>240</v>
       </c>
-      <c r="D41" s="49">
+      <c r="D41" s="87">
         <v>-13662</v>
       </c>
-      <c r="E41" s="49">
+      <c r="E41" s="87">
         <v>-56.924999999999997</v>
       </c>
-      <c r="F41" s="49">
+      <c r="F41" s="87">
         <v>-1</v>
       </c>
-      <c r="G41" s="49">
+      <c r="G41" s="87">
         <v>-190</v>
       </c>
-      <c r="L41" s="14"/>
-      <c r="O41" s="65"/>
-      <c r="P41" s="39">
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
+      <c r="L41" s="83"/>
+      <c r="O41" s="76"/>
+      <c r="P41" s="88">
         <v>8</v>
       </c>
-      <c r="Q41" s="41">
+      <c r="Q41" s="89">
         <v>244</v>
       </c>
-      <c r="R41" s="41">
+      <c r="R41" s="89">
         <v>-12997.5</v>
       </c>
-      <c r="S41" s="41">
+      <c r="S41" s="89">
         <v>-53.268442999999998</v>
       </c>
-      <c r="T41" s="41">
+      <c r="T41" s="89">
         <v>0</v>
       </c>
-      <c r="U41" s="41">
+      <c r="U41" s="89">
         <v>-184.5</v>
       </c>
-      <c r="V41" s="57"/>
-      <c r="W41" s="57"/>
-      <c r="X41" s="57"/>
-      <c r="Z41" s="14"/>
+      <c r="V41" s="81"/>
+      <c r="W41" s="81"/>
+      <c r="X41" s="81"/>
+      <c r="Z41" s="83"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="77"/>
+      <c r="A42" s="78"/>
       <c r="B42" s="51">
         <v>9</v>
       </c>
@@ -7475,15 +7743,15 @@
         <f>H42/I42</f>
         <v>-55.47126436781609</v>
       </c>
-      <c r="K42" s="69">
+      <c r="K42" s="63">
         <f>I36/I42</f>
         <v>0.67049808429118773</v>
       </c>
-      <c r="L42" s="78">
+      <c r="L42" s="67">
         <f>-J36/J42</f>
         <v>1.7155858149310284</v>
       </c>
-      <c r="O42" s="65"/>
+      <c r="O42" s="76"/>
       <c r="P42" s="54">
         <v>9</v>
       </c>
@@ -7514,17 +7782,17 @@
         <f>V42/W42</f>
         <v>-51.777566539923953</v>
       </c>
-      <c r="Y42" s="69">
+      <c r="Y42" s="63">
         <f>W36/W42</f>
         <v>0.65779467680608361</v>
       </c>
-      <c r="Z42" s="78">
+      <c r="Z42" s="67">
         <f>-X36/X42</f>
         <v>1.7592482896137345</v>
       </c>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="77"/>
+      <c r="A43" s="78"/>
       <c r="B43" s="45">
         <v>10</v>
       </c>
@@ -7551,19 +7819,19 @@
         <f>C43+C39</f>
         <v>106</v>
       </c>
-      <c r="J43" s="73">
+      <c r="J43" s="64">
         <f>H43/I43</f>
         <v>-44.330188679245282</v>
       </c>
-      <c r="K43" s="69">
+      <c r="K43" s="63">
         <f>I37/I43</f>
         <v>0.59433962264150941</v>
       </c>
-      <c r="L43" s="78">
+      <c r="L43" s="67">
         <f>-J37/J43</f>
         <v>1.9682742359907714</v>
       </c>
-      <c r="O43" s="65"/>
+      <c r="O43" s="76"/>
       <c r="P43" s="39">
         <v>10</v>
       </c>
@@ -7590,15 +7858,15 @@
         <f>Q43+Q39</f>
         <v>107</v>
       </c>
-      <c r="X43" s="73">
+      <c r="X43" s="64">
         <f>V43/W43</f>
         <v>-43.546728971962615</v>
       </c>
-      <c r="Y43" s="69">
+      <c r="Y43" s="63">
         <f>W37/W43</f>
         <v>0.57943925233644855</v>
       </c>
-      <c r="Z43" s="78">
+      <c r="Z43" s="67">
         <f>-X37/X43</f>
         <v>2.0102617268224128</v>
       </c>
@@ -7629,20 +7897,25 @@
         <f>SUM(R26:R44)</f>
         <v>4413</v>
       </c>
+      <c r="S45">
+        <f>R45/Q45</f>
+        <v>3.6990779547359596</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="A35:A43"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A5:A11"/>
     <mergeCell ref="P23:S23"/>
     <mergeCell ref="O26:O34"/>
     <mergeCell ref="O35:O43"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="A35:A43"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A5:A11"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>